--- a/data-migration/xlsx_1900-/1923_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1923_Sommer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_WEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9A7AB0-AAAE-4D74-A2A0-30F108313285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287BFE73-750F-4E4B-9817-16E5E8CC15B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="-20640" windowWidth="19155" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3490" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3490" uniqueCount="1478">
   <si>
     <t>Sommer</t>
   </si>
@@ -4297,9 +4297,6 @@
     <t>wolfer_p</t>
   </si>
   <si>
-    <t>walthard _m</t>
-  </si>
-  <si>
     <t>veraguth_o</t>
   </si>
   <si>
@@ -4333,9 +4330,6 @@
     <t>vontuhr_a</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>vonmonakow_c</t>
   </si>
   <si>
@@ -4384,9 +4378,6 @@
     <t>wehrli_ga</t>
   </si>
   <si>
-    <t>nager _fr</t>
-  </si>
-  <si>
     <t>maier_hw</t>
   </si>
   <si>
@@ -4396,9 +4387,6 @@
     <t>meyerwirz_e</t>
   </si>
   <si>
-    <t>anderes _e</t>
-  </si>
-  <si>
     <t>miescher_g</t>
   </si>
   <si>
@@ -4451,6 +4439,21 @@
   </si>
   <si>
     <t>Unfallmedizin, I. Teil (rechtlich-medizinischer Teil).  (II. Teil, praktisch: Prof. Schlatter)</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>nager_fr</t>
+  </si>
+  <si>
+    <t>anderes_e</t>
+  </si>
+  <si>
+    <t>walthard_m</t>
   </si>
 </sst>
 </file>
@@ -4794,8 +4797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E265" workbookViewId="0">
-      <selection activeCell="I185" sqref="I185"/>
+    <sheetView tabSelected="1" topLeftCell="C133" workbookViewId="0">
+      <selection activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4830,10 +4833,10 @@
         <v>1305</v>
       </c>
       <c r="I1" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J1" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4859,7 +4862,7 @@
         <v>1306</v>
       </c>
       <c r="I2" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4885,7 +4888,7 @@
         <v>1417</v>
       </c>
       <c r="I3" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4911,10 +4914,10 @@
         <v>1305</v>
       </c>
       <c r="I4" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J4" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4940,7 +4943,7 @@
         <v>1417</v>
       </c>
       <c r="I5" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4966,7 +4969,7 @@
         <v>1417</v>
       </c>
       <c r="I6" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4992,7 +4995,7 @@
         <v>1308</v>
       </c>
       <c r="I7" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5018,7 +5021,7 @@
         <v>1418</v>
       </c>
       <c r="I8" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -5044,7 +5047,7 @@
         <v>1309</v>
       </c>
       <c r="I9" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -5070,7 +5073,7 @@
         <v>1418</v>
       </c>
       <c r="I10" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5096,7 +5099,7 @@
         <v>1418</v>
       </c>
       <c r="I11" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5122,7 +5125,7 @@
         <v>1308</v>
       </c>
       <c r="I12" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5148,7 +5151,7 @@
         <v>1417</v>
       </c>
       <c r="I13" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5174,7 +5177,7 @@
         <v>1307</v>
       </c>
       <c r="I14" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5200,7 +5203,7 @@
         <v>1307</v>
       </c>
       <c r="I15" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5223,7 +5226,7 @@
         <v>988</v>
       </c>
       <c r="H16" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5246,7 +5249,7 @@
         <v>989</v>
       </c>
       <c r="H17" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5269,10 +5272,10 @@
         <v>990</v>
       </c>
       <c r="H18" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="I18" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5295,7 +5298,7 @@
         <v>979</v>
       </c>
       <c r="H19" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5321,7 +5324,7 @@
         <v>1418</v>
       </c>
       <c r="I20" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5347,10 +5350,10 @@
         <v>1305</v>
       </c>
       <c r="I21" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J21" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5376,7 +5379,7 @@
         <v>1309</v>
       </c>
       <c r="I22" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5402,7 +5405,7 @@
         <v>1418</v>
       </c>
       <c r="I23" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5428,7 +5431,7 @@
         <v>1307</v>
       </c>
       <c r="I24" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5454,7 +5457,7 @@
         <v>1306</v>
       </c>
       <c r="I25" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5480,7 +5483,7 @@
         <v>1418</v>
       </c>
       <c r="I26" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5503,7 +5506,7 @@
         <v>998</v>
       </c>
       <c r="H27" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5526,10 +5529,10 @@
         <v>975</v>
       </c>
       <c r="H28" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="I28" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5555,10 +5558,10 @@
         <v>1310</v>
       </c>
       <c r="I29" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J29" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5584,7 +5587,7 @@
         <v>1311</v>
       </c>
       <c r="I30" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5610,10 +5613,10 @@
         <v>1310</v>
       </c>
       <c r="I31" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J31" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5636,10 +5639,10 @@
         <v>1001</v>
       </c>
       <c r="H32" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="I32" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -5662,10 +5665,10 @@
         <v>1002</v>
       </c>
       <c r="H33" t="s">
-        <v>1437</v>
+        <v>1473</v>
       </c>
       <c r="I33" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -5691,7 +5694,7 @@
         <v>1311</v>
       </c>
       <c r="I34" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -5717,7 +5720,7 @@
         <v>1313</v>
       </c>
       <c r="I35" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -5743,7 +5746,7 @@
         <v>1313</v>
       </c>
       <c r="I36" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -5769,10 +5772,10 @@
         <v>1314</v>
       </c>
       <c r="I37" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J37" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -5798,10 +5801,10 @@
         <v>1314</v>
       </c>
       <c r="I38" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J38" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -5824,10 +5827,10 @@
         <v>1007</v>
       </c>
       <c r="H39" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="I39" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -5853,7 +5856,7 @@
         <v>1315</v>
       </c>
       <c r="I40" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -5879,7 +5882,7 @@
         <v>1315</v>
       </c>
       <c r="I41" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -5905,7 +5908,7 @@
         <v>1316</v>
       </c>
       <c r="I42" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -5931,7 +5934,7 @@
         <v>1317</v>
       </c>
       <c r="I43" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -5957,7 +5960,7 @@
         <v>1318</v>
       </c>
       <c r="I44" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -5983,7 +5986,7 @@
         <v>1319</v>
       </c>
       <c r="I45" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -6009,7 +6012,7 @@
         <v>1318</v>
       </c>
       <c r="I46" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -6035,7 +6038,7 @@
         <v>1319</v>
       </c>
       <c r="I47" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -6061,7 +6064,7 @@
         <v>1320</v>
       </c>
       <c r="I48" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -6087,7 +6090,7 @@
         <v>1320</v>
       </c>
       <c r="I49" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -6113,7 +6116,7 @@
         <v>1321</v>
       </c>
       <c r="I50" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -6139,7 +6142,7 @@
         <v>1419</v>
       </c>
       <c r="I51" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -6165,7 +6168,7 @@
         <v>1419</v>
       </c>
       <c r="I52" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -6191,7 +6194,7 @@
         <v>1323</v>
       </c>
       <c r="I53" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -6217,7 +6220,7 @@
         <v>1323</v>
       </c>
       <c r="I54" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -6243,7 +6246,7 @@
         <v>1324</v>
       </c>
       <c r="I55" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -6266,10 +6269,10 @@
         <v>1022</v>
       </c>
       <c r="H56" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="I56" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -6295,10 +6298,10 @@
         <v>1310</v>
       </c>
       <c r="I57" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J57" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -6324,7 +6327,7 @@
         <v>1311</v>
       </c>
       <c r="I58" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -6347,10 +6350,10 @@
         <v>1024</v>
       </c>
       <c r="H59" t="s">
-        <v>1437</v>
+        <v>1473</v>
       </c>
       <c r="I59" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -6376,7 +6379,7 @@
         <v>1325</v>
       </c>
       <c r="I60" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -6402,7 +6405,7 @@
         <v>1325</v>
       </c>
       <c r="I61" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -6428,7 +6431,7 @@
         <v>1316</v>
       </c>
       <c r="I62" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -6454,7 +6457,7 @@
         <v>1316</v>
       </c>
       <c r="I63" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -6480,7 +6483,7 @@
         <v>1318</v>
       </c>
       <c r="I64" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -6506,7 +6509,7 @@
         <v>1319</v>
       </c>
       <c r="I65" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -6532,7 +6535,7 @@
         <v>1319</v>
       </c>
       <c r="I66" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -6558,7 +6561,7 @@
         <v>1321</v>
       </c>
       <c r="I67" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -6584,7 +6587,7 @@
         <v>1419</v>
       </c>
       <c r="I68" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -6610,7 +6613,7 @@
         <v>1323</v>
       </c>
       <c r="I69" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -6636,7 +6639,7 @@
         <v>1323</v>
       </c>
       <c r="I70" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -6662,7 +6665,7 @@
         <v>1323</v>
       </c>
       <c r="I71" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -6691,7 +6694,7 @@
         <v>1326</v>
       </c>
       <c r="I72" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -6717,7 +6720,7 @@
         <v>1326</v>
       </c>
       <c r="I73" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -6743,19 +6746,19 @@
         <v>1326</v>
       </c>
       <c r="I74" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="K74" t="s">
+        <v>1456</v>
+      </c>
+      <c r="L74" t="s">
         <v>1460</v>
-      </c>
-      <c r="L74" t="s">
-        <v>1464</v>
       </c>
       <c r="M74" t="s">
         <v>1327</v>
       </c>
       <c r="N74" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -6781,7 +6784,7 @@
         <v>1326</v>
       </c>
       <c r="I75" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -6807,7 +6810,7 @@
         <v>1326</v>
       </c>
       <c r="I76" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -6833,7 +6836,7 @@
         <v>1327</v>
       </c>
       <c r="I77" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -6859,7 +6862,7 @@
         <v>1327</v>
       </c>
       <c r="I78" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -6885,7 +6888,7 @@
         <v>1327</v>
       </c>
       <c r="I79" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -6908,16 +6911,16 @@
         <v>1041</v>
       </c>
       <c r="H80" t="s">
+        <v>1456</v>
+      </c>
+      <c r="I80" t="s">
         <v>1460</v>
-      </c>
-      <c r="I80" t="s">
-        <v>1464</v>
       </c>
       <c r="K80" t="s">
         <v>1337</v>
       </c>
       <c r="L80" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -6940,10 +6943,10 @@
         <v>1042</v>
       </c>
       <c r="H81" t="s">
+        <v>1456</v>
+      </c>
+      <c r="I81" t="s">
         <v>1460</v>
-      </c>
-      <c r="I81" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -6966,10 +6969,10 @@
         <v>1043</v>
       </c>
       <c r="H82" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="I82" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -6992,10 +6995,10 @@
         <v>1044</v>
       </c>
       <c r="H83" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="I83" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -7018,10 +7021,10 @@
         <v>1045</v>
       </c>
       <c r="H84" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="I84" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -7047,7 +7050,7 @@
         <v>1328</v>
       </c>
       <c r="I85" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -7070,10 +7073,10 @@
         <v>1047</v>
       </c>
       <c r="H86" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="I86" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -7096,10 +7099,10 @@
         <v>1048</v>
       </c>
       <c r="H87" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="I87" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -7122,13 +7125,13 @@
         <v>1003</v>
       </c>
       <c r="H88" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="I88" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J88" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -7151,13 +7154,13 @@
         <v>1049</v>
       </c>
       <c r="H89" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="I89" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J89" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -7180,13 +7183,13 @@
         <v>1050</v>
       </c>
       <c r="H90" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="I90" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J90" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -7209,13 +7212,13 @@
         <v>1051</v>
       </c>
       <c r="H91" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="I91" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J91" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -7241,7 +7244,7 @@
         <v>1330</v>
       </c>
       <c r="I92" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -7267,7 +7270,7 @@
         <v>1330</v>
       </c>
       <c r="I93" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -7293,7 +7296,7 @@
         <v>1330</v>
       </c>
       <c r="I94" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -7319,7 +7322,7 @@
         <v>1330</v>
       </c>
       <c r="I95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -7345,7 +7348,7 @@
         <v>1330</v>
       </c>
       <c r="I96" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -7371,7 +7374,7 @@
         <v>1330</v>
       </c>
       <c r="I97" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -7397,7 +7400,7 @@
         <v>1420</v>
       </c>
       <c r="I98" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -7423,13 +7426,13 @@
         <v>1420</v>
       </c>
       <c r="I99" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="K99" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="L99" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -7455,7 +7458,7 @@
         <v>1421</v>
       </c>
       <c r="I100" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -7481,7 +7484,7 @@
         <v>1421</v>
       </c>
       <c r="I101" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -7507,7 +7510,7 @@
         <v>1422</v>
       </c>
       <c r="I102" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -7533,7 +7536,7 @@
         <v>1422</v>
       </c>
       <c r="I103" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -7559,7 +7562,7 @@
         <v>1423</v>
       </c>
       <c r="I104" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -7585,7 +7588,7 @@
         <v>1423</v>
       </c>
       <c r="I105" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -7611,7 +7614,7 @@
         <v>1331</v>
       </c>
       <c r="I106" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -7634,10 +7637,10 @@
         <v>1066</v>
       </c>
       <c r="H107" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="I107" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -7660,10 +7663,10 @@
         <v>1067</v>
       </c>
       <c r="H108" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="I108" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -7689,7 +7692,7 @@
         <v>1332</v>
       </c>
       <c r="I109" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -7715,7 +7718,7 @@
         <v>1332</v>
       </c>
       <c r="I110" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -7741,7 +7744,7 @@
         <v>1332</v>
       </c>
       <c r="I111" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -7767,7 +7770,7 @@
         <v>1333</v>
       </c>
       <c r="I112" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -7793,7 +7796,7 @@
         <v>1333</v>
       </c>
       <c r="I113" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -7819,7 +7822,7 @@
         <v>1333</v>
       </c>
       <c r="I114" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -7845,7 +7848,7 @@
         <v>1334</v>
       </c>
       <c r="I115" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -7871,7 +7874,7 @@
         <v>1334</v>
       </c>
       <c r="I116" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -7897,7 +7900,7 @@
         <v>1334</v>
       </c>
       <c r="I117" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -7923,7 +7926,7 @@
         <v>1334</v>
       </c>
       <c r="I118" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -7946,10 +7949,10 @@
         <v>985</v>
       </c>
       <c r="H119" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="I119" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -7972,10 +7975,10 @@
         <v>1005</v>
       </c>
       <c r="H120" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="I120" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -8001,7 +8004,7 @@
         <v>1424</v>
       </c>
       <c r="I121" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -8027,7 +8030,7 @@
         <v>1336</v>
       </c>
       <c r="I122" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -8053,7 +8056,7 @@
         <v>1336</v>
       </c>
       <c r="I123" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -8079,7 +8082,7 @@
         <v>1337</v>
       </c>
       <c r="I124" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -8105,7 +8108,7 @@
         <v>1337</v>
       </c>
       <c r="I125" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -8131,13 +8134,13 @@
         <v>1337</v>
       </c>
       <c r="I126" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="K126" t="s">
+        <v>1456</v>
+      </c>
+      <c r="L126" t="s">
         <v>1460</v>
-      </c>
-      <c r="L126" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -8163,7 +8166,7 @@
         <v>1338</v>
       </c>
       <c r="I127" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -8189,7 +8192,7 @@
         <v>1339</v>
       </c>
       <c r="I128" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -8215,7 +8218,7 @@
         <v>1339</v>
       </c>
       <c r="I129" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -8241,7 +8244,7 @@
         <v>1339</v>
       </c>
       <c r="I130" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -8267,7 +8270,7 @@
         <v>1340</v>
       </c>
       <c r="I131" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -8290,10 +8293,10 @@
         <v>1083</v>
       </c>
       <c r="H132" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="I132" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -8319,7 +8322,7 @@
         <v>1341</v>
       </c>
       <c r="I133" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -8345,7 +8348,7 @@
         <v>1342</v>
       </c>
       <c r="I134" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8371,7 +8374,7 @@
         <v>1342</v>
       </c>
       <c r="I135" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8397,7 +8400,7 @@
         <v>1343</v>
       </c>
       <c r="I136" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8423,7 +8426,7 @@
         <v>1343</v>
       </c>
       <c r="I137" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8449,7 +8452,7 @@
         <v>1344</v>
       </c>
       <c r="I138" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8475,7 +8478,7 @@
         <v>1344</v>
       </c>
       <c r="I139" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8498,10 +8501,10 @@
         <v>1089</v>
       </c>
       <c r="H140" t="s">
-        <v>1425</v>
+        <v>1477</v>
       </c>
       <c r="I140" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8524,10 +8527,10 @@
         <v>1090</v>
       </c>
       <c r="H141" t="s">
-        <v>1425</v>
+        <v>1477</v>
       </c>
       <c r="I141" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8550,10 +8553,10 @@
         <v>1091</v>
       </c>
       <c r="H142" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="I142" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8576,10 +8579,10 @@
         <v>1039</v>
       </c>
       <c r="H143" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="I143" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8602,10 +8605,10 @@
         <v>1092</v>
       </c>
       <c r="H144" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="I144" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -8628,10 +8631,10 @@
         <v>1093</v>
       </c>
       <c r="H145" t="s">
-        <v>1458</v>
+        <v>1476</v>
       </c>
       <c r="I145" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -8657,7 +8660,7 @@
         <v>1345</v>
       </c>
       <c r="I146" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -8683,7 +8686,7 @@
         <v>1345</v>
       </c>
       <c r="I147" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -8709,7 +8712,7 @@
         <v>1345</v>
       </c>
       <c r="I148" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -8732,10 +8735,10 @@
         <v>1096</v>
       </c>
       <c r="H149" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="I149" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -8761,7 +8764,7 @@
         <v>1322</v>
       </c>
       <c r="I150" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -8787,7 +8790,7 @@
         <v>1322</v>
       </c>
       <c r="I151" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -8810,10 +8813,10 @@
         <v>1099</v>
       </c>
       <c r="H152" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="I152" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -8836,10 +8839,10 @@
         <v>1100</v>
       </c>
       <c r="H153" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="I153" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -8862,16 +8865,16 @@
         <v>1101</v>
       </c>
       <c r="H154" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="I154" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
       <c r="K154" t="s">
         <v>1346</v>
       </c>
       <c r="L154" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -8897,7 +8900,7 @@
         <v>1346</v>
       </c>
       <c r="I155" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -8923,7 +8926,7 @@
         <v>1346</v>
       </c>
       <c r="I156" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -8946,10 +8949,10 @@
         <v>1104</v>
       </c>
       <c r="H157" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="I157" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -8972,10 +8975,10 @@
         <v>1105</v>
       </c>
       <c r="H158" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="I158" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -8998,10 +9001,10 @@
         <v>1106</v>
       </c>
       <c r="H159" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="I159" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -9024,10 +9027,10 @@
         <v>1107</v>
       </c>
       <c r="H160" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="I160" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -9050,10 +9053,10 @@
         <v>1108</v>
       </c>
       <c r="H161" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I161" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -9076,10 +9079,10 @@
         <v>1109</v>
       </c>
       <c r="H162" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I162" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -9102,10 +9105,10 @@
         <v>1110</v>
       </c>
       <c r="H163" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I163" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -9128,10 +9131,10 @@
         <v>1111</v>
       </c>
       <c r="H164" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I164" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -9154,10 +9157,10 @@
         <v>1112</v>
       </c>
       <c r="H165" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I165" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -9183,7 +9186,7 @@
         <v>1347</v>
       </c>
       <c r="I166" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -9200,7 +9203,7 @@
         <v>491</v>
       </c>
       <c r="F167" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="G167" t="s">
         <v>1014</v>
@@ -9209,7 +9212,7 @@
         <v>1347</v>
       </c>
       <c r="I167" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -9235,7 +9238,7 @@
         <v>1347</v>
       </c>
       <c r="I168" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -9261,7 +9264,7 @@
         <v>1347</v>
       </c>
       <c r="I169" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -9287,7 +9290,7 @@
         <v>1347</v>
       </c>
       <c r="I170" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -9310,10 +9313,10 @@
         <v>1116</v>
       </c>
       <c r="H171" t="s">
-        <v>1454</v>
+        <v>1475</v>
       </c>
       <c r="I171" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -9336,10 +9339,10 @@
         <v>1117</v>
       </c>
       <c r="H172" t="s">
-        <v>1454</v>
+        <v>1475</v>
       </c>
       <c r="I172" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -9362,10 +9365,10 @@
         <v>1118</v>
       </c>
       <c r="H173" t="s">
-        <v>1454</v>
+        <v>1475</v>
       </c>
       <c r="I173" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -9391,7 +9394,7 @@
         <v>1348</v>
       </c>
       <c r="I174" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -9414,10 +9417,10 @@
         <v>1120</v>
       </c>
       <c r="H175" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="I175" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -9443,7 +9446,7 @@
         <v>1349</v>
       </c>
       <c r="I176" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -9469,13 +9472,13 @@
         <v>1349</v>
       </c>
       <c r="I177" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="K177" t="s">
         <v>1371</v>
       </c>
       <c r="L177" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -9498,10 +9501,10 @@
         <v>1123</v>
       </c>
       <c r="H178" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="I178" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -9524,10 +9527,10 @@
         <v>1124</v>
       </c>
       <c r="H179" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="I179" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -9553,7 +9556,7 @@
         <v>1350</v>
       </c>
       <c r="I180" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -9579,7 +9582,7 @@
         <v>1350</v>
       </c>
       <c r="I181" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -9605,7 +9608,7 @@
         <v>1350</v>
       </c>
       <c r="I182" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -9631,7 +9634,7 @@
         <v>1350</v>
       </c>
       <c r="I183" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -9657,7 +9660,7 @@
         <v>1350</v>
       </c>
       <c r="I184" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
@@ -9683,7 +9686,7 @@
         <v>1351</v>
       </c>
       <c r="I185" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -9709,7 +9712,7 @@
         <v>1351</v>
       </c>
       <c r="I186" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -9735,7 +9738,7 @@
         <v>1351</v>
       </c>
       <c r="I187" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -9758,10 +9761,10 @@
         <v>1131</v>
       </c>
       <c r="H188" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="I188" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -9784,10 +9787,10 @@
         <v>1132</v>
       </c>
       <c r="H189" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="I189" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -9810,10 +9813,10 @@
         <v>1053</v>
       </c>
       <c r="H190" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="I190" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
@@ -9836,10 +9839,10 @@
         <v>1133</v>
       </c>
       <c r="H191" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="I191" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -9862,10 +9865,10 @@
         <v>1134</v>
       </c>
       <c r="H192" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="I192" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -9888,10 +9891,10 @@
         <v>1135</v>
       </c>
       <c r="H193" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="I193" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -9914,10 +9917,10 @@
         <v>1136</v>
       </c>
       <c r="H194" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="I194" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -9943,10 +9946,10 @@
         <v>1353</v>
       </c>
       <c r="I195" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J195" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -9972,10 +9975,10 @@
         <v>1353</v>
       </c>
       <c r="I196" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J196" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -10001,7 +10004,7 @@
         <v>1354</v>
       </c>
       <c r="I197" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -10027,7 +10030,7 @@
         <v>1354</v>
       </c>
       <c r="I198" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -10053,10 +10056,10 @@
         <v>1353</v>
       </c>
       <c r="I199" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J199" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -10082,10 +10085,10 @@
         <v>1353</v>
       </c>
       <c r="I200" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J200" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -10111,16 +10114,16 @@
         <v>1353</v>
       </c>
       <c r="I201" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J201" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="K201" t="s">
         <v>1354</v>
       </c>
       <c r="L201" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -10146,10 +10149,10 @@
         <v>1353</v>
       </c>
       <c r="I202" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J202" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -10175,10 +10178,10 @@
         <v>1353</v>
       </c>
       <c r="I203" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J203" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -10204,7 +10207,7 @@
         <v>1354</v>
       </c>
       <c r="I204" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -10230,7 +10233,7 @@
         <v>1354</v>
       </c>
       <c r="I205" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -10256,7 +10259,7 @@
         <v>1354</v>
       </c>
       <c r="I206" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
@@ -10282,7 +10285,7 @@
         <v>1355</v>
       </c>
       <c r="I207" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -10308,7 +10311,7 @@
         <v>1355</v>
       </c>
       <c r="I208" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -10334,7 +10337,7 @@
         <v>1355</v>
       </c>
       <c r="I209" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -10360,7 +10363,7 @@
         <v>1355</v>
       </c>
       <c r="I210" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -10386,7 +10389,7 @@
         <v>1355</v>
       </c>
       <c r="I211" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -10412,7 +10415,7 @@
         <v>1355</v>
       </c>
       <c r="I212" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -10438,7 +10441,7 @@
         <v>1355</v>
       </c>
       <c r="I213" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -10464,7 +10467,7 @@
         <v>1356</v>
       </c>
       <c r="I214" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -10490,7 +10493,7 @@
         <v>1357</v>
       </c>
       <c r="I215" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -10516,7 +10519,7 @@
         <v>1357</v>
       </c>
       <c r="I216" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -10542,7 +10545,7 @@
         <v>1357</v>
       </c>
       <c r="I217" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -10568,7 +10571,7 @@
         <v>1358</v>
       </c>
       <c r="I218" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -10594,7 +10597,7 @@
         <v>1358</v>
       </c>
       <c r="I219" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -10620,7 +10623,7 @@
         <v>1358</v>
       </c>
       <c r="I220" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -10646,7 +10649,7 @@
         <v>1358</v>
       </c>
       <c r="I221" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -10672,7 +10675,7 @@
         <v>1358</v>
       </c>
       <c r="I222" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -10695,10 +10698,10 @@
         <v>993</v>
       </c>
       <c r="H223" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="I223" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -10721,10 +10724,10 @@
         <v>1159</v>
       </c>
       <c r="H224" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="I224" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -10747,10 +10750,10 @@
         <v>1160</v>
       </c>
       <c r="H225" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="I225" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -10773,10 +10776,10 @@
         <v>1005</v>
       </c>
       <c r="H226" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="I226" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -10799,10 +10802,10 @@
         <v>1014</v>
       </c>
       <c r="H227" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="I227" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -10828,7 +10831,7 @@
         <v>1359</v>
       </c>
       <c r="I228" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -10854,7 +10857,7 @@
         <v>1359</v>
       </c>
       <c r="I229" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -10880,7 +10883,7 @@
         <v>1359</v>
       </c>
       <c r="I230" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -10906,7 +10909,7 @@
         <v>1359</v>
       </c>
       <c r="I231" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -10932,7 +10935,7 @@
         <v>1359</v>
       </c>
       <c r="I232" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -10958,7 +10961,7 @@
         <v>1360</v>
       </c>
       <c r="I233" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -10984,7 +10987,7 @@
         <v>1361</v>
       </c>
       <c r="I234" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -11010,7 +11013,7 @@
         <v>1361</v>
       </c>
       <c r="I235" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -11036,7 +11039,7 @@
         <v>1361</v>
       </c>
       <c r="I236" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -11062,7 +11065,7 @@
         <v>1362</v>
       </c>
       <c r="I237" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -11088,10 +11091,10 @@
         <v>1363</v>
       </c>
       <c r="I238" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="J238" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -11117,10 +11120,10 @@
         <v>1363</v>
       </c>
       <c r="I239" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="J239" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -11146,7 +11149,7 @@
         <v>1364</v>
       </c>
       <c r="I240" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -11172,7 +11175,7 @@
         <v>1362</v>
       </c>
       <c r="I241" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -11198,7 +11201,7 @@
         <v>1365</v>
       </c>
       <c r="I242" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -11221,10 +11224,10 @@
         <v>1172</v>
       </c>
       <c r="H243" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="I243" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -11250,7 +11253,7 @@
         <v>1366</v>
       </c>
       <c r="I244" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -11273,10 +11276,10 @@
         <v>1024</v>
       </c>
       <c r="H245" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="I245" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -11302,7 +11305,7 @@
         <v>1366</v>
       </c>
       <c r="I246" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -11328,7 +11331,7 @@
         <v>1366</v>
       </c>
       <c r="I247" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -11351,10 +11354,10 @@
         <v>1101</v>
       </c>
       <c r="H248" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="I248" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -11380,7 +11383,7 @@
         <v>1365</v>
       </c>
       <c r="I249" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -11406,7 +11409,7 @@
         <v>1366</v>
       </c>
       <c r="I250" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -11429,10 +11432,10 @@
         <v>1002</v>
       </c>
       <c r="H251" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="I251" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -11458,10 +11461,10 @@
         <v>1363</v>
       </c>
       <c r="I252" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="J252" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -11484,10 +11487,10 @@
         <v>1178</v>
       </c>
       <c r="H253" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="I253" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -11513,7 +11516,7 @@
         <v>1362</v>
       </c>
       <c r="I254" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -11539,7 +11542,7 @@
         <v>1364</v>
       </c>
       <c r="I255" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -11565,7 +11568,7 @@
         <v>1362</v>
       </c>
       <c r="I256" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11591,7 +11594,7 @@
         <v>1362</v>
       </c>
       <c r="I257" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11614,10 +11617,10 @@
         <v>1182</v>
       </c>
       <c r="H258" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="I258" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11643,7 +11646,7 @@
         <v>1367</v>
       </c>
       <c r="I259" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11669,7 +11672,7 @@
         <v>1368</v>
       </c>
       <c r="I260" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11695,7 +11698,7 @@
         <v>1368</v>
       </c>
       <c r="I261" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11721,7 +11724,7 @@
         <v>1368</v>
       </c>
       <c r="I262" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11747,7 +11750,7 @@
         <v>1368</v>
       </c>
       <c r="I263" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11776,7 +11779,7 @@
         <v>1368</v>
       </c>
       <c r="I264" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11796,7 +11799,7 @@
         <v>1368</v>
       </c>
       <c r="I265" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11822,7 +11825,7 @@
         <v>1324</v>
       </c>
       <c r="I266" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11848,7 +11851,7 @@
         <v>1369</v>
       </c>
       <c r="I267" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11874,7 +11877,7 @@
         <v>1369</v>
       </c>
       <c r="I268" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11900,7 +11903,7 @@
         <v>1369</v>
       </c>
       <c r="I269" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11926,7 +11929,7 @@
         <v>1324</v>
       </c>
       <c r="I270" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11952,7 +11955,7 @@
         <v>1324</v>
       </c>
       <c r="I271" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11978,7 +11981,7 @@
         <v>1305</v>
       </c>
       <c r="I272" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
@@ -12004,7 +12007,7 @@
         <v>1305</v>
       </c>
       <c r="I273" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
@@ -12030,7 +12033,7 @@
         <v>1329</v>
       </c>
       <c r="I274" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
@@ -12056,7 +12059,7 @@
         <v>1329</v>
       </c>
       <c r="I275" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
@@ -12082,7 +12085,7 @@
         <v>1329</v>
       </c>
       <c r="I276" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
@@ -12108,7 +12111,7 @@
         <v>1370</v>
       </c>
       <c r="I277" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -12134,7 +12137,7 @@
         <v>1369</v>
       </c>
       <c r="I278" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
@@ -12160,7 +12163,7 @@
         <v>1371</v>
       </c>
       <c r="I279" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
@@ -12186,7 +12189,7 @@
         <v>1371</v>
       </c>
       <c r="I280" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
@@ -12212,13 +12215,13 @@
         <v>1371</v>
       </c>
       <c r="I281" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="K281" t="s">
         <v>1349</v>
       </c>
       <c r="L281" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
@@ -12244,7 +12247,7 @@
         <v>1371</v>
       </c>
       <c r="I282" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
@@ -12267,10 +12270,10 @@
         <v>1066</v>
       </c>
       <c r="H283" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="I283" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
@@ -12296,7 +12299,7 @@
         <v>1369</v>
       </c>
       <c r="I284" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
@@ -12322,7 +12325,7 @@
         <v>1373</v>
       </c>
       <c r="I285" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
@@ -12348,7 +12351,7 @@
         <v>1371</v>
       </c>
       <c r="I286" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
@@ -12374,7 +12377,7 @@
         <v>1371</v>
       </c>
       <c r="I287" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
@@ -12400,7 +12403,7 @@
         <v>1369</v>
       </c>
       <c r="I288" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -12426,7 +12429,7 @@
         <v>1371</v>
       </c>
       <c r="I289" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -12452,7 +12455,7 @@
         <v>1369</v>
       </c>
       <c r="I290" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -12475,10 +12478,10 @@
         <v>1028</v>
       </c>
       <c r="H291" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="I291" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -12504,7 +12507,7 @@
         <v>1374</v>
       </c>
       <c r="I292" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -12530,7 +12533,7 @@
         <v>1374</v>
       </c>
       <c r="I293" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -12553,10 +12556,10 @@
         <v>1080</v>
       </c>
       <c r="H294" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I294" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -12579,10 +12582,10 @@
         <v>1203</v>
       </c>
       <c r="H295" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I295" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12608,7 +12611,7 @@
         <v>1375</v>
       </c>
       <c r="I296" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12634,7 +12637,7 @@
         <v>1375</v>
       </c>
       <c r="I297" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12660,7 +12663,7 @@
         <v>1376</v>
       </c>
       <c r="I298" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12686,7 +12689,7 @@
         <v>1376</v>
       </c>
       <c r="I299" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12715,7 +12718,7 @@
         <v>1376</v>
       </c>
       <c r="I300" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12738,10 +12741,10 @@
         <v>1206</v>
       </c>
       <c r="H301" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I301" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12764,10 +12767,10 @@
         <v>1207</v>
       </c>
       <c r="H302" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I302" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12790,10 +12793,10 @@
         <v>979</v>
       </c>
       <c r="H303" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="I303" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12819,7 +12822,7 @@
         <v>1374</v>
       </c>
       <c r="I304" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12845,7 +12848,7 @@
         <v>1376</v>
       </c>
       <c r="I305" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12871,7 +12874,7 @@
         <v>1376</v>
       </c>
       <c r="I306" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12897,7 +12900,7 @@
         <v>1374</v>
       </c>
       <c r="I307" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12923,7 +12926,7 @@
         <v>1374</v>
       </c>
       <c r="I308" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12949,7 +12952,7 @@
         <v>1376</v>
       </c>
       <c r="I309" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12972,10 +12975,10 @@
         <v>1141</v>
       </c>
       <c r="H310" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I310" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12998,10 +13001,10 @@
         <v>1210</v>
       </c>
       <c r="H311" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="I311" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -13024,10 +13027,10 @@
         <v>1005</v>
       </c>
       <c r="H312" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="I312" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -13050,10 +13053,10 @@
         <v>1178</v>
       </c>
       <c r="H313" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="I313" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -13076,10 +13079,10 @@
         <v>1102</v>
       </c>
       <c r="H314" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="I314" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -13102,10 +13105,10 @@
         <v>1101</v>
       </c>
       <c r="H315" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="I315" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -13131,7 +13134,7 @@
         <v>1377</v>
       </c>
       <c r="I316" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -13157,7 +13160,7 @@
         <v>1377</v>
       </c>
       <c r="I317" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -13183,7 +13186,7 @@
         <v>1377</v>
       </c>
       <c r="I318" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -13206,10 +13209,10 @@
         <v>1212</v>
       </c>
       <c r="H319" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I319" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -13232,10 +13235,10 @@
         <v>1063</v>
       </c>
       <c r="H320" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I320" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -13261,7 +13264,7 @@
         <v>1378</v>
       </c>
       <c r="I321" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -13287,7 +13290,7 @@
         <v>1378</v>
       </c>
       <c r="I322" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -13313,7 +13316,7 @@
         <v>1378</v>
       </c>
       <c r="I323" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -13336,10 +13339,10 @@
         <v>997</v>
       </c>
       <c r="H324" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="I324" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13365,7 +13368,7 @@
         <v>1378</v>
       </c>
       <c r="I325" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13388,10 +13391,10 @@
         <v>1216</v>
       </c>
       <c r="H326" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I326" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13417,7 +13420,7 @@
         <v>1377</v>
       </c>
       <c r="I327" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13440,10 +13443,10 @@
         <v>1027</v>
       </c>
       <c r="H328" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I328" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13466,10 +13469,10 @@
         <v>1011</v>
       </c>
       <c r="H329" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="I329" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13495,7 +13498,7 @@
         <v>1373</v>
       </c>
       <c r="I330" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13521,7 +13524,7 @@
         <v>1373</v>
       </c>
       <c r="I331" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13547,7 +13550,7 @@
         <v>1373</v>
       </c>
       <c r="I332" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13570,10 +13573,10 @@
         <v>1218</v>
       </c>
       <c r="H333" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="I333" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13599,7 +13602,7 @@
         <v>1379</v>
       </c>
       <c r="I334" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13625,7 +13628,7 @@
         <v>1379</v>
       </c>
       <c r="I335" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13651,7 +13654,7 @@
         <v>1379</v>
       </c>
       <c r="I336" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13674,10 +13677,10 @@
         <v>1222</v>
       </c>
       <c r="H337" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="I337" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13703,7 +13706,7 @@
         <v>1307</v>
       </c>
       <c r="I338" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13726,10 +13729,10 @@
         <v>1223</v>
       </c>
       <c r="H339" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="I339" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13755,7 +13758,7 @@
         <v>1380</v>
       </c>
       <c r="I340" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13781,7 +13784,7 @@
         <v>1380</v>
       </c>
       <c r="I341" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13807,7 +13810,7 @@
         <v>1381</v>
       </c>
       <c r="I342" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13833,7 +13836,7 @@
         <v>1382</v>
       </c>
       <c r="I343" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13859,7 +13862,7 @@
         <v>1381</v>
       </c>
       <c r="I344" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13885,7 +13888,7 @@
         <v>1373</v>
       </c>
       <c r="I345" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13908,10 +13911,10 @@
         <v>1227</v>
       </c>
       <c r="H346" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="I346" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13937,7 +13940,7 @@
         <v>1379</v>
       </c>
       <c r="I347" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13963,7 +13966,7 @@
         <v>1380</v>
       </c>
       <c r="I348" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13986,10 +13989,10 @@
         <v>1230</v>
       </c>
       <c r="H349" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="I349" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -14012,10 +14015,10 @@
         <v>1169</v>
       </c>
       <c r="H350" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="I350" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -14041,7 +14044,7 @@
         <v>1383</v>
       </c>
       <c r="I351" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -14067,7 +14070,7 @@
         <v>1383</v>
       </c>
       <c r="I352" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -14093,7 +14096,7 @@
         <v>1383</v>
       </c>
       <c r="I353" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -14119,7 +14122,7 @@
         <v>1384</v>
       </c>
       <c r="I354" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -14145,7 +14148,7 @@
         <v>1384</v>
       </c>
       <c r="I355" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -14171,7 +14174,7 @@
         <v>1385</v>
       </c>
       <c r="I356" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -14197,7 +14200,7 @@
         <v>1386</v>
       </c>
       <c r="I357" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -14223,7 +14226,7 @@
         <v>1386</v>
       </c>
       <c r="I358" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -14249,7 +14252,7 @@
         <v>1312</v>
       </c>
       <c r="I359" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -14275,7 +14278,7 @@
         <v>1312</v>
       </c>
       <c r="I360" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -14301,7 +14304,7 @@
         <v>1384</v>
       </c>
       <c r="I361" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -14327,7 +14330,7 @@
         <v>1387</v>
       </c>
       <c r="I362" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -14353,7 +14356,7 @@
         <v>1387</v>
       </c>
       <c r="I363" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -14379,7 +14382,7 @@
         <v>1352</v>
       </c>
       <c r="I364" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -14405,7 +14408,7 @@
         <v>1352</v>
       </c>
       <c r="I365" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -14431,7 +14434,7 @@
         <v>1324</v>
       </c>
       <c r="I366" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -14457,7 +14460,7 @@
         <v>1324</v>
       </c>
       <c r="I367" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -14480,10 +14483,10 @@
         <v>1237</v>
       </c>
       <c r="H368" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I368" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.3">
@@ -14506,10 +14509,10 @@
         <v>1068</v>
       </c>
       <c r="H369" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I369" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.3">
@@ -14532,10 +14535,10 @@
         <v>1238</v>
       </c>
       <c r="H370" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I370" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.3">
@@ -14558,16 +14561,16 @@
         <v>1192</v>
       </c>
       <c r="H371" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I371" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="K371" t="s">
         <v>1388</v>
       </c>
       <c r="L371" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.3">
@@ -14593,7 +14596,7 @@
         <v>1388</v>
       </c>
       <c r="I372" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.3">
@@ -14619,7 +14622,7 @@
         <v>1388</v>
       </c>
       <c r="I373" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.3">
@@ -14645,7 +14648,7 @@
         <v>1388</v>
       </c>
       <c r="I374" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
@@ -14671,7 +14674,7 @@
         <v>1389</v>
       </c>
       <c r="I375" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.3">
@@ -14697,7 +14700,7 @@
         <v>1390</v>
       </c>
       <c r="I376" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.3">
@@ -14723,7 +14726,7 @@
         <v>1390</v>
       </c>
       <c r="I377" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.3">
@@ -14752,7 +14755,7 @@
         <v>1335</v>
       </c>
       <c r="I378" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.3">
@@ -14781,7 +14784,7 @@
         <v>1335</v>
       </c>
       <c r="I379" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.3">
@@ -14810,7 +14813,7 @@
         <v>1335</v>
       </c>
       <c r="I380" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.3">
@@ -14839,7 +14842,7 @@
         <v>1335</v>
       </c>
       <c r="I381" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.3">
@@ -14868,7 +14871,7 @@
         <v>1335</v>
       </c>
       <c r="I382" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.3">
@@ -14891,10 +14894,10 @@
         <v>986</v>
       </c>
       <c r="H383" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="I383" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.3">
@@ -14917,10 +14920,10 @@
         <v>1245</v>
       </c>
       <c r="H384" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="I384" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.3">
@@ -14943,10 +14946,10 @@
         <v>1246</v>
       </c>
       <c r="H385" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="I385" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.3">
@@ -14969,10 +14972,10 @@
         <v>1247</v>
       </c>
       <c r="H386" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="I386" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.3">
@@ -14995,10 +14998,10 @@
         <v>1056</v>
       </c>
       <c r="H387" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="I387" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.3">
@@ -15021,16 +15024,16 @@
         <v>1248</v>
       </c>
       <c r="H388" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="I388" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="K388" t="s">
         <v>1391</v>
       </c>
       <c r="L388" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.3">
@@ -15053,10 +15056,10 @@
         <v>1055</v>
       </c>
       <c r="H389" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="I389" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.3">
@@ -15082,7 +15085,7 @@
         <v>1391</v>
       </c>
       <c r="I390" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.3">
@@ -15108,7 +15111,7 @@
         <v>1391</v>
       </c>
       <c r="I391" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.3">
@@ -15134,7 +15137,7 @@
         <v>1391</v>
       </c>
       <c r="I392" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.3">
@@ -15160,7 +15163,7 @@
         <v>1391</v>
       </c>
       <c r="I393" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.3">
@@ -15186,7 +15189,7 @@
         <v>1392</v>
       </c>
       <c r="I394" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.3">
@@ -15212,7 +15215,7 @@
         <v>1392</v>
       </c>
       <c r="I395" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.3">
@@ -15238,7 +15241,7 @@
         <v>1393</v>
       </c>
       <c r="I396" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.3">
@@ -15264,7 +15267,7 @@
         <v>1394</v>
       </c>
       <c r="I397" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.3">
@@ -15290,7 +15293,7 @@
         <v>1395</v>
       </c>
       <c r="I398" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.3">
@@ -15319,7 +15322,7 @@
         <v>1396</v>
       </c>
       <c r="I399" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.3">
@@ -15345,7 +15348,7 @@
         <v>1396</v>
       </c>
       <c r="I400" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.3">
@@ -15371,7 +15374,7 @@
         <v>1396</v>
       </c>
       <c r="I401" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.3">
@@ -15397,7 +15400,7 @@
         <v>1396</v>
       </c>
       <c r="I402" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.3">
@@ -15423,7 +15426,7 @@
         <v>1396</v>
       </c>
       <c r="I403" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.3">
@@ -15449,13 +15452,13 @@
         <v>1396</v>
       </c>
       <c r="I404" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="K404" t="s">
         <v>1398</v>
       </c>
       <c r="L404" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.3">
@@ -15481,13 +15484,13 @@
         <v>1396</v>
       </c>
       <c r="I405" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="K405" t="s">
         <v>1372</v>
       </c>
       <c r="L405" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.3">
@@ -15513,7 +15516,7 @@
         <v>1397</v>
       </c>
       <c r="I406" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.3">
@@ -15539,7 +15542,7 @@
         <v>1397</v>
       </c>
       <c r="I407" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.3">
@@ -15565,7 +15568,7 @@
         <v>1397</v>
       </c>
       <c r="I408" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.3">
@@ -15591,7 +15594,7 @@
         <v>1397</v>
       </c>
       <c r="I409" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.3">
@@ -15617,7 +15620,7 @@
         <v>1397</v>
       </c>
       <c r="I410" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.3">
@@ -15643,7 +15646,7 @@
         <v>1397</v>
       </c>
       <c r="I411" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.3">
@@ -15669,7 +15672,7 @@
         <v>1397</v>
       </c>
       <c r="I412" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.3">
@@ -15695,7 +15698,7 @@
         <v>1397</v>
       </c>
       <c r="I413" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.3">
@@ -15718,10 +15721,10 @@
         <v>1204</v>
       </c>
       <c r="H414" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="I414" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.3">
@@ -15747,7 +15750,7 @@
         <v>1398</v>
       </c>
       <c r="I415" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.3">
@@ -15773,7 +15776,7 @@
         <v>1398</v>
       </c>
       <c r="I416" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -15799,7 +15802,7 @@
         <v>1372</v>
       </c>
       <c r="I417" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -15825,7 +15828,7 @@
         <v>1399</v>
       </c>
       <c r="I418" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -15854,7 +15857,7 @@
         <v>1400</v>
       </c>
       <c r="I419" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -15883,7 +15886,7 @@
         <v>1400</v>
       </c>
       <c r="I420" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
@@ -15912,7 +15915,7 @@
         <v>1400</v>
       </c>
       <c r="I421" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
@@ -15941,7 +15944,7 @@
         <v>1400</v>
       </c>
       <c r="I422" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
@@ -15970,7 +15973,7 @@
         <v>1400</v>
       </c>
       <c r="I423" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
@@ -15999,7 +16002,7 @@
         <v>1400</v>
       </c>
       <c r="I424" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
@@ -16028,7 +16031,7 @@
         <v>1400</v>
       </c>
       <c r="I425" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
@@ -16057,7 +16060,7 @@
         <v>1400</v>
       </c>
       <c r="I426" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
@@ -16086,7 +16089,7 @@
         <v>1400</v>
       </c>
       <c r="I427" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
@@ -16115,7 +16118,7 @@
         <v>1400</v>
       </c>
       <c r="I428" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
@@ -16144,7 +16147,7 @@
         <v>1401</v>
       </c>
       <c r="I429" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
@@ -16173,7 +16176,7 @@
         <v>1401</v>
       </c>
       <c r="I430" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
@@ -16202,7 +16205,7 @@
         <v>1401</v>
       </c>
       <c r="I431" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
@@ -16231,7 +16234,7 @@
         <v>1401</v>
       </c>
       <c r="I432" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.3">
@@ -16260,7 +16263,7 @@
         <v>1401</v>
       </c>
       <c r="I433" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.3">
@@ -16289,7 +16292,7 @@
         <v>1401</v>
       </c>
       <c r="I434" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.3">
@@ -16318,7 +16321,7 @@
         <v>1401</v>
       </c>
       <c r="I435" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.3">
@@ -16347,7 +16350,7 @@
         <v>1402</v>
       </c>
       <c r="I436" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.3">
@@ -16376,7 +16379,7 @@
         <v>1402</v>
       </c>
       <c r="I437" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.3">
@@ -16402,7 +16405,7 @@
         <v>1321</v>
       </c>
       <c r="I438" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.3">
@@ -16428,7 +16431,7 @@
         <v>1321</v>
       </c>
       <c r="I439" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.3">
@@ -16454,7 +16457,7 @@
         <v>1321</v>
       </c>
       <c r="I440" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.3">
@@ -16477,10 +16480,10 @@
         <v>1279</v>
       </c>
       <c r="H441" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="I441" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.3">
@@ -16506,7 +16509,7 @@
         <v>1403</v>
       </c>
       <c r="I442" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.3">
@@ -16532,7 +16535,7 @@
         <v>1404</v>
       </c>
       <c r="I443" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.3">
@@ -16558,7 +16561,7 @@
         <v>1321</v>
       </c>
       <c r="I444" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.3">
@@ -16584,13 +16587,13 @@
         <v>1321</v>
       </c>
       <c r="I445" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="K445" t="s">
         <v>1403</v>
       </c>
       <c r="L445" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.3">
@@ -16616,13 +16619,13 @@
         <v>1321</v>
       </c>
       <c r="I446" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="K446" t="s">
         <v>1404</v>
       </c>
       <c r="L446" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.3">
@@ -16645,10 +16648,10 @@
         <v>1281</v>
       </c>
       <c r="H447" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="I447" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.3">
@@ -16671,10 +16674,10 @@
         <v>1282</v>
       </c>
       <c r="H448" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="I448" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.3">
@@ -16697,10 +16700,10 @@
         <v>1283</v>
       </c>
       <c r="H449" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="I449" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.3">
@@ -16723,10 +16726,10 @@
         <v>1284</v>
       </c>
       <c r="H450" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="I450" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.3">
@@ -16749,10 +16752,10 @@
         <v>1285</v>
       </c>
       <c r="H451" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="I451" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.3">
@@ -16775,10 +16778,10 @@
         <v>1286</v>
       </c>
       <c r="H452" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="I452" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.3">
@@ -16801,10 +16804,10 @@
         <v>1287</v>
       </c>
       <c r="H453" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="I453" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.3">
@@ -16830,10 +16833,10 @@
         <v>1405</v>
       </c>
       <c r="I454" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J454" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.3">
@@ -16859,10 +16862,10 @@
         <v>1405</v>
       </c>
       <c r="I455" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J455" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.3">
@@ -16888,16 +16891,16 @@
         <v>1405</v>
       </c>
       <c r="I456" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J456" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="K456" t="s">
         <v>1408</v>
       </c>
       <c r="L456" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.3">
@@ -16923,10 +16926,10 @@
         <v>1405</v>
       </c>
       <c r="I457" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J457" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.3">
@@ -16952,10 +16955,10 @@
         <v>1405</v>
       </c>
       <c r="I458" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J458" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.3">
@@ -16981,7 +16984,7 @@
         <v>1406</v>
       </c>
       <c r="I459" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.3">
@@ -17007,7 +17010,7 @@
         <v>1406</v>
       </c>
       <c r="I460" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.3">
@@ -17033,7 +17036,7 @@
         <v>1407</v>
       </c>
       <c r="I461" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.3">
@@ -17059,7 +17062,7 @@
         <v>1408</v>
       </c>
       <c r="I462" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.3">
@@ -17085,7 +17088,7 @@
         <v>1409</v>
       </c>
       <c r="I463" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.3">
@@ -17111,7 +17114,7 @@
         <v>1409</v>
       </c>
       <c r="I464" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.3">
@@ -17137,13 +17140,13 @@
         <v>1409</v>
       </c>
       <c r="I465" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="K465" t="s">
         <v>1411</v>
       </c>
       <c r="L465" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.3">
@@ -17169,19 +17172,19 @@
         <v>1409</v>
       </c>
       <c r="I466" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="K466" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="L466" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="M466" t="s">
         <v>1411</v>
       </c>
       <c r="N466" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.3">
@@ -17207,7 +17210,7 @@
         <v>1409</v>
       </c>
       <c r="I467" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.3">
@@ -17230,10 +17233,10 @@
         <v>1299</v>
       </c>
       <c r="H468" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="I468" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.3">
@@ -17256,10 +17259,10 @@
         <v>979</v>
       </c>
       <c r="H469" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="I469" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.3">
@@ -17282,10 +17285,10 @@
         <v>1300</v>
       </c>
       <c r="H470" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="I470" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.3">
@@ -17311,7 +17314,7 @@
         <v>1410</v>
       </c>
       <c r="I471" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.3">
@@ -17337,7 +17340,7 @@
         <v>1411</v>
       </c>
       <c r="I472" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.3">
@@ -17363,7 +17366,7 @@
         <v>1411</v>
       </c>
       <c r="I473" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.3">
@@ -17389,7 +17392,7 @@
         <v>1412</v>
       </c>
       <c r="I474" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.3">
@@ -17415,7 +17418,7 @@
         <v>1412</v>
       </c>
       <c r="I475" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.3">
@@ -17441,7 +17444,7 @@
         <v>1412</v>
       </c>
       <c r="I476" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.3">
@@ -17467,7 +17470,7 @@
         <v>1413</v>
       </c>
       <c r="I477" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.3">
@@ -17493,7 +17496,7 @@
         <v>1413</v>
       </c>
       <c r="I478" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.3">
@@ -17519,7 +17522,7 @@
         <v>1413</v>
       </c>
       <c r="I479" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.3">
@@ -17545,7 +17548,7 @@
         <v>1413</v>
       </c>
       <c r="I480" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.3">
@@ -17571,7 +17574,7 @@
         <v>1413</v>
       </c>
       <c r="I481" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.3">
@@ -17597,7 +17600,7 @@
         <v>1413</v>
       </c>
       <c r="I482" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.3">
@@ -17623,7 +17626,7 @@
         <v>1413</v>
       </c>
       <c r="I483" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.3">
@@ -17649,7 +17652,7 @@
         <v>1414</v>
       </c>
       <c r="I484" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.3">
@@ -17675,7 +17678,7 @@
         <v>1415</v>
       </c>
       <c r="I485" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.3">
@@ -17701,7 +17704,7 @@
         <v>1416</v>
       </c>
       <c r="I486" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1923_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1923_Sommer.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287BFE73-750F-4E4B-9817-16E5E8CC15B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7A07AA-FEB1-4F98-B94D-C54D96D0C273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4300,9 +4313,6 @@
     <t>veraguth_o</t>
   </si>
   <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>waser_o</t>
   </si>
   <si>
@@ -4372,27 +4382,18 @@
     <t>gysi_a</t>
   </si>
   <si>
-    <t>schinz_hr</t>
-  </si>
-  <si>
     <t>wehrli_ga</t>
   </si>
   <si>
     <t>maier_hw</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
     <t>miescher_g</t>
   </si>
   <si>
-    <t>frey_h</t>
-  </si>
-  <si>
     <t>brun_r</t>
   </si>
   <si>
@@ -4454,6 +4455,18 @@
   </si>
   <si>
     <t>walthard_m</t>
+  </si>
+  <si>
+    <t>frey_h2</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>schinz_hr2</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -4489,11 +4502,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4797,11 +4813,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C133" workbookViewId="0">
-      <selection activeCell="H141" sqref="H141"/>
+    <sheetView tabSelected="1" topLeftCell="B145" workbookViewId="0">
+      <selection activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
@@ -4833,10 +4849,10 @@
         <v>1305</v>
       </c>
       <c r="I1" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J1" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4862,7 +4878,7 @@
         <v>1306</v>
       </c>
       <c r="I2" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4888,7 +4904,7 @@
         <v>1417</v>
       </c>
       <c r="I3" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4914,10 +4930,10 @@
         <v>1305</v>
       </c>
       <c r="I4" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J4" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4943,7 +4959,7 @@
         <v>1417</v>
       </c>
       <c r="I5" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4969,7 +4985,7 @@
         <v>1417</v>
       </c>
       <c r="I6" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4995,7 +5011,7 @@
         <v>1308</v>
       </c>
       <c r="I7" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5021,7 +5037,7 @@
         <v>1418</v>
       </c>
       <c r="I8" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -5047,7 +5063,7 @@
         <v>1309</v>
       </c>
       <c r="I9" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -5073,7 +5089,7 @@
         <v>1418</v>
       </c>
       <c r="I10" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5099,7 +5115,7 @@
         <v>1418</v>
       </c>
       <c r="I11" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5125,7 +5141,7 @@
         <v>1308</v>
       </c>
       <c r="I12" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5151,7 +5167,7 @@
         <v>1417</v>
       </c>
       <c r="I13" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5177,7 +5193,7 @@
         <v>1307</v>
       </c>
       <c r="I14" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5203,7 +5219,7 @@
         <v>1307</v>
       </c>
       <c r="I15" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5226,7 +5242,7 @@
         <v>988</v>
       </c>
       <c r="H16" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5249,7 +5265,7 @@
         <v>989</v>
       </c>
       <c r="H17" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5272,10 +5288,10 @@
         <v>990</v>
       </c>
       <c r="H18" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="I18" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5298,7 +5314,7 @@
         <v>979</v>
       </c>
       <c r="H19" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5324,7 +5340,7 @@
         <v>1418</v>
       </c>
       <c r="I20" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5350,10 +5366,10 @@
         <v>1305</v>
       </c>
       <c r="I21" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J21" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5379,7 +5395,7 @@
         <v>1309</v>
       </c>
       <c r="I22" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5405,7 +5421,7 @@
         <v>1418</v>
       </c>
       <c r="I23" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5431,7 +5447,7 @@
         <v>1307</v>
       </c>
       <c r="I24" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5457,7 +5473,7 @@
         <v>1306</v>
       </c>
       <c r="I25" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5483,7 +5499,7 @@
         <v>1418</v>
       </c>
       <c r="I26" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5506,7 +5522,7 @@
         <v>998</v>
       </c>
       <c r="H27" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5529,10 +5545,10 @@
         <v>975</v>
       </c>
       <c r="H28" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="I28" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5558,10 +5574,10 @@
         <v>1310</v>
       </c>
       <c r="I29" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J29" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5587,7 +5603,7 @@
         <v>1311</v>
       </c>
       <c r="I30" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5613,10 +5629,10 @@
         <v>1310</v>
       </c>
       <c r="I31" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J31" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5639,10 +5655,10 @@
         <v>1001</v>
       </c>
       <c r="H32" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="I32" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -5665,10 +5681,10 @@
         <v>1002</v>
       </c>
       <c r="H33" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="I33" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -5694,7 +5710,7 @@
         <v>1311</v>
       </c>
       <c r="I34" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -5720,7 +5736,7 @@
         <v>1313</v>
       </c>
       <c r="I35" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -5746,7 +5762,7 @@
         <v>1313</v>
       </c>
       <c r="I36" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -5772,10 +5788,10 @@
         <v>1314</v>
       </c>
       <c r="I37" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J37" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -5801,10 +5817,10 @@
         <v>1314</v>
       </c>
       <c r="I38" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J38" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -5827,10 +5843,10 @@
         <v>1007</v>
       </c>
       <c r="H39" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="I39" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -5856,7 +5872,7 @@
         <v>1315</v>
       </c>
       <c r="I40" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -5882,7 +5898,7 @@
         <v>1315</v>
       </c>
       <c r="I41" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -5908,7 +5924,7 @@
         <v>1316</v>
       </c>
       <c r="I42" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -5934,7 +5950,7 @@
         <v>1317</v>
       </c>
       <c r="I43" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -5960,7 +5976,7 @@
         <v>1318</v>
       </c>
       <c r="I44" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -5986,7 +6002,7 @@
         <v>1319</v>
       </c>
       <c r="I45" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -6012,7 +6028,7 @@
         <v>1318</v>
       </c>
       <c r="I46" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -6038,7 +6054,7 @@
         <v>1319</v>
       </c>
       <c r="I47" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -6064,7 +6080,7 @@
         <v>1320</v>
       </c>
       <c r="I48" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -6090,7 +6106,7 @@
         <v>1320</v>
       </c>
       <c r="I49" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -6116,7 +6132,7 @@
         <v>1321</v>
       </c>
       <c r="I50" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -6142,7 +6158,7 @@
         <v>1419</v>
       </c>
       <c r="I51" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -6168,7 +6184,7 @@
         <v>1419</v>
       </c>
       <c r="I52" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -6194,7 +6210,7 @@
         <v>1323</v>
       </c>
       <c r="I53" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -6220,7 +6236,7 @@
         <v>1323</v>
       </c>
       <c r="I54" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -6246,7 +6262,7 @@
         <v>1324</v>
       </c>
       <c r="I55" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -6269,10 +6285,10 @@
         <v>1022</v>
       </c>
       <c r="H56" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="I56" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -6298,10 +6314,10 @@
         <v>1310</v>
       </c>
       <c r="I57" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J57" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -6327,7 +6343,7 @@
         <v>1311</v>
       </c>
       <c r="I58" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -6350,10 +6366,10 @@
         <v>1024</v>
       </c>
       <c r="H59" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="I59" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -6379,7 +6395,7 @@
         <v>1325</v>
       </c>
       <c r="I60" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -6405,7 +6421,7 @@
         <v>1325</v>
       </c>
       <c r="I61" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -6431,7 +6447,7 @@
         <v>1316</v>
       </c>
       <c r="I62" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -6457,7 +6473,7 @@
         <v>1316</v>
       </c>
       <c r="I63" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -6483,7 +6499,7 @@
         <v>1318</v>
       </c>
       <c r="I64" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -6509,7 +6525,7 @@
         <v>1319</v>
       </c>
       <c r="I65" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -6535,7 +6551,7 @@
         <v>1319</v>
       </c>
       <c r="I66" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -6561,7 +6577,7 @@
         <v>1321</v>
       </c>
       <c r="I67" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -6587,7 +6603,7 @@
         <v>1419</v>
       </c>
       <c r="I68" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -6613,7 +6629,7 @@
         <v>1323</v>
       </c>
       <c r="I69" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -6639,7 +6655,7 @@
         <v>1323</v>
       </c>
       <c r="I70" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -6665,7 +6681,7 @@
         <v>1323</v>
       </c>
       <c r="I71" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -6694,7 +6710,7 @@
         <v>1326</v>
       </c>
       <c r="I72" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -6720,7 +6736,7 @@
         <v>1326</v>
       </c>
       <c r="I73" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -6746,19 +6762,19 @@
         <v>1326</v>
       </c>
       <c r="I74" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="K74" t="s">
+        <v>1474</v>
+      </c>
+      <c r="L74" t="s">
         <v>1456</v>
-      </c>
-      <c r="L74" t="s">
-        <v>1460</v>
       </c>
       <c r="M74" t="s">
         <v>1327</v>
       </c>
       <c r="N74" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -6784,7 +6800,7 @@
         <v>1326</v>
       </c>
       <c r="I75" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -6810,7 +6826,7 @@
         <v>1326</v>
       </c>
       <c r="I76" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -6836,7 +6852,7 @@
         <v>1327</v>
       </c>
       <c r="I77" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -6862,7 +6878,7 @@
         <v>1327</v>
       </c>
       <c r="I78" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -6888,7 +6904,7 @@
         <v>1327</v>
       </c>
       <c r="I79" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -6911,16 +6927,16 @@
         <v>1041</v>
       </c>
       <c r="H80" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I80" t="s">
         <v>1456</v>
-      </c>
-      <c r="I80" t="s">
-        <v>1460</v>
       </c>
       <c r="K80" t="s">
         <v>1337</v>
       </c>
       <c r="L80" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -6943,10 +6959,10 @@
         <v>1042</v>
       </c>
       <c r="H81" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I81" t="s">
         <v>1456</v>
-      </c>
-      <c r="I81" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -6969,10 +6985,10 @@
         <v>1043</v>
       </c>
       <c r="H82" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="I82" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -6995,10 +7011,10 @@
         <v>1044</v>
       </c>
       <c r="H83" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="I83" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -7021,10 +7037,10 @@
         <v>1045</v>
       </c>
       <c r="H84" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="I84" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -7050,7 +7066,7 @@
         <v>1328</v>
       </c>
       <c r="I85" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -7073,10 +7089,10 @@
         <v>1047</v>
       </c>
       <c r="H86" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="I86" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -7099,10 +7115,10 @@
         <v>1048</v>
       </c>
       <c r="H87" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="I87" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -7125,13 +7141,13 @@
         <v>1003</v>
       </c>
       <c r="H88" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="I88" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J88" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -7154,13 +7170,13 @@
         <v>1049</v>
       </c>
       <c r="H89" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="I89" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J89" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -7183,13 +7199,13 @@
         <v>1050</v>
       </c>
       <c r="H90" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="I90" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J90" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -7212,13 +7228,13 @@
         <v>1051</v>
       </c>
       <c r="H91" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="I91" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J91" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -7244,7 +7260,7 @@
         <v>1330</v>
       </c>
       <c r="I92" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -7270,7 +7286,7 @@
         <v>1330</v>
       </c>
       <c r="I93" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -7296,7 +7312,7 @@
         <v>1330</v>
       </c>
       <c r="I94" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -7322,7 +7338,7 @@
         <v>1330</v>
       </c>
       <c r="I95" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -7348,7 +7364,7 @@
         <v>1330</v>
       </c>
       <c r="I96" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -7374,7 +7390,7 @@
         <v>1330</v>
       </c>
       <c r="I97" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -7400,7 +7416,7 @@
         <v>1420</v>
       </c>
       <c r="I98" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -7426,13 +7442,13 @@
         <v>1420</v>
       </c>
       <c r="I99" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="K99" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="L99" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -7458,7 +7474,7 @@
         <v>1421</v>
       </c>
       <c r="I100" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -7484,7 +7500,7 @@
         <v>1421</v>
       </c>
       <c r="I101" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -7510,7 +7526,7 @@
         <v>1422</v>
       </c>
       <c r="I102" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -7536,7 +7552,7 @@
         <v>1422</v>
       </c>
       <c r="I103" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -7562,7 +7578,7 @@
         <v>1423</v>
       </c>
       <c r="I104" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -7588,7 +7604,7 @@
         <v>1423</v>
       </c>
       <c r="I105" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -7614,7 +7630,7 @@
         <v>1331</v>
       </c>
       <c r="I106" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -7637,10 +7653,10 @@
         <v>1066</v>
       </c>
       <c r="H107" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="I107" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -7663,10 +7679,10 @@
         <v>1067</v>
       </c>
       <c r="H108" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="I108" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -7692,7 +7708,7 @@
         <v>1332</v>
       </c>
       <c r="I109" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -7718,7 +7734,7 @@
         <v>1332</v>
       </c>
       <c r="I110" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -7744,7 +7760,7 @@
         <v>1332</v>
       </c>
       <c r="I111" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -7770,7 +7786,7 @@
         <v>1333</v>
       </c>
       <c r="I112" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -7796,7 +7812,7 @@
         <v>1333</v>
       </c>
       <c r="I113" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -7822,7 +7838,7 @@
         <v>1333</v>
       </c>
       <c r="I114" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -7848,7 +7864,7 @@
         <v>1334</v>
       </c>
       <c r="I115" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -7874,7 +7890,7 @@
         <v>1334</v>
       </c>
       <c r="I116" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -7900,7 +7916,7 @@
         <v>1334</v>
       </c>
       <c r="I117" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -7926,7 +7942,7 @@
         <v>1334</v>
       </c>
       <c r="I118" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -7949,10 +7965,10 @@
         <v>985</v>
       </c>
       <c r="H119" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="I119" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -7975,10 +7991,10 @@
         <v>1005</v>
       </c>
       <c r="H120" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="I120" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -8004,7 +8020,7 @@
         <v>1424</v>
       </c>
       <c r="I121" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -8030,7 +8046,7 @@
         <v>1336</v>
       </c>
       <c r="I122" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -8056,7 +8072,7 @@
         <v>1336</v>
       </c>
       <c r="I123" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -8082,7 +8098,7 @@
         <v>1337</v>
       </c>
       <c r="I124" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -8108,7 +8124,7 @@
         <v>1337</v>
       </c>
       <c r="I125" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -8134,13 +8150,13 @@
         <v>1337</v>
       </c>
       <c r="I126" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="K126" t="s">
+        <v>1474</v>
+      </c>
+      <c r="L126" t="s">
         <v>1456</v>
-      </c>
-      <c r="L126" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -8166,7 +8182,7 @@
         <v>1338</v>
       </c>
       <c r="I127" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -8192,7 +8208,7 @@
         <v>1339</v>
       </c>
       <c r="I128" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -8218,7 +8234,7 @@
         <v>1339</v>
       </c>
       <c r="I129" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -8244,7 +8260,7 @@
         <v>1339</v>
       </c>
       <c r="I130" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -8270,7 +8286,7 @@
         <v>1340</v>
       </c>
       <c r="I131" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -8293,10 +8309,10 @@
         <v>1083</v>
       </c>
       <c r="H132" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="I132" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -8322,7 +8338,7 @@
         <v>1341</v>
       </c>
       <c r="I133" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -8348,7 +8364,7 @@
         <v>1342</v>
       </c>
       <c r="I134" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8374,7 +8390,7 @@
         <v>1342</v>
       </c>
       <c r="I135" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8400,7 +8416,7 @@
         <v>1343</v>
       </c>
       <c r="I136" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8426,7 +8442,7 @@
         <v>1343</v>
       </c>
       <c r="I137" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8452,7 +8468,7 @@
         <v>1344</v>
       </c>
       <c r="I138" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8478,7 +8494,7 @@
         <v>1344</v>
       </c>
       <c r="I139" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8501,10 +8517,10 @@
         <v>1089</v>
       </c>
       <c r="H140" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="I140" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8527,10 +8543,10 @@
         <v>1090</v>
       </c>
       <c r="H141" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="I141" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8552,11 +8568,11 @@
       <c r="G142" t="s">
         <v>1091</v>
       </c>
-      <c r="H142" t="s">
-        <v>1453</v>
+      <c r="H142" s="1" t="s">
+        <v>1475</v>
       </c>
       <c r="I142" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8578,11 +8594,11 @@
       <c r="G143" t="s">
         <v>1039</v>
       </c>
-      <c r="H143" t="s">
-        <v>1453</v>
+      <c r="H143" s="1" t="s">
+        <v>1475</v>
       </c>
       <c r="I143" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8605,10 +8621,10 @@
         <v>1092</v>
       </c>
       <c r="H144" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="I144" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -8631,10 +8647,10 @@
         <v>1093</v>
       </c>
       <c r="H145" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="I145" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -8660,7 +8676,7 @@
         <v>1345</v>
       </c>
       <c r="I146" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -8686,7 +8702,7 @@
         <v>1345</v>
       </c>
       <c r="I147" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -8712,7 +8728,7 @@
         <v>1345</v>
       </c>
       <c r="I148" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -8735,10 +8751,10 @@
         <v>1096</v>
       </c>
       <c r="H149" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="I149" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -8764,7 +8780,7 @@
         <v>1322</v>
       </c>
       <c r="I150" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -8790,7 +8806,7 @@
         <v>1322</v>
       </c>
       <c r="I151" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -8813,10 +8829,10 @@
         <v>1099</v>
       </c>
       <c r="H152" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="I152" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -8839,10 +8855,10 @@
         <v>1100</v>
       </c>
       <c r="H153" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="I153" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -8865,16 +8881,16 @@
         <v>1101</v>
       </c>
       <c r="H154" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="I154" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="K154" t="s">
         <v>1346</v>
       </c>
       <c r="L154" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -8900,7 +8916,7 @@
         <v>1346</v>
       </c>
       <c r="I155" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -8926,7 +8942,7 @@
         <v>1346</v>
       </c>
       <c r="I156" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -8952,7 +8968,7 @@
         <v>1425</v>
       </c>
       <c r="I157" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -8978,7 +8994,7 @@
         <v>1425</v>
       </c>
       <c r="I158" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -9004,7 +9020,7 @@
         <v>1425</v>
       </c>
       <c r="I159" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -9030,7 +9046,7 @@
         <v>1425</v>
       </c>
       <c r="I160" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -9053,10 +9069,10 @@
         <v>1108</v>
       </c>
       <c r="H161" t="s">
-        <v>1426</v>
+        <v>1477</v>
       </c>
       <c r="I161" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -9079,10 +9095,10 @@
         <v>1109</v>
       </c>
       <c r="H162" t="s">
-        <v>1426</v>
+        <v>1477</v>
       </c>
       <c r="I162" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -9105,10 +9121,10 @@
         <v>1110</v>
       </c>
       <c r="H163" t="s">
-        <v>1426</v>
+        <v>1477</v>
       </c>
       <c r="I163" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -9131,10 +9147,10 @@
         <v>1111</v>
       </c>
       <c r="H164" t="s">
-        <v>1426</v>
+        <v>1477</v>
       </c>
       <c r="I164" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -9157,10 +9173,10 @@
         <v>1112</v>
       </c>
       <c r="H165" t="s">
-        <v>1426</v>
+        <v>1477</v>
       </c>
       <c r="I165" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -9186,7 +9202,7 @@
         <v>1347</v>
       </c>
       <c r="I166" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -9203,7 +9219,7 @@
         <v>491</v>
       </c>
       <c r="F167" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="G167" t="s">
         <v>1014</v>
@@ -9212,7 +9228,7 @@
         <v>1347</v>
       </c>
       <c r="I167" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -9238,7 +9254,7 @@
         <v>1347</v>
       </c>
       <c r="I168" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -9264,7 +9280,7 @@
         <v>1347</v>
       </c>
       <c r="I169" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -9290,7 +9306,7 @@
         <v>1347</v>
       </c>
       <c r="I170" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -9313,10 +9329,10 @@
         <v>1116</v>
       </c>
       <c r="H171" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="I171" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -9339,10 +9355,10 @@
         <v>1117</v>
       </c>
       <c r="H172" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="I172" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -9365,10 +9381,10 @@
         <v>1118</v>
       </c>
       <c r="H173" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="I173" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -9394,7 +9410,7 @@
         <v>1348</v>
       </c>
       <c r="I174" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -9417,10 +9433,10 @@
         <v>1120</v>
       </c>
       <c r="H175" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="I175" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -9446,7 +9462,7 @@
         <v>1349</v>
       </c>
       <c r="I176" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -9472,13 +9488,13 @@
         <v>1349</v>
       </c>
       <c r="I177" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="K177" t="s">
         <v>1371</v>
       </c>
       <c r="L177" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -9501,10 +9517,10 @@
         <v>1123</v>
       </c>
       <c r="H178" t="s">
-        <v>1450</v>
+        <v>1476</v>
       </c>
       <c r="I178" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -9527,10 +9543,10 @@
         <v>1124</v>
       </c>
       <c r="H179" t="s">
-        <v>1450</v>
+        <v>1476</v>
       </c>
       <c r="I179" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -9556,7 +9572,7 @@
         <v>1350</v>
       </c>
       <c r="I180" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -9582,7 +9598,7 @@
         <v>1350</v>
       </c>
       <c r="I181" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -9608,7 +9624,7 @@
         <v>1350</v>
       </c>
       <c r="I182" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -9634,7 +9650,7 @@
         <v>1350</v>
       </c>
       <c r="I183" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -9660,7 +9676,7 @@
         <v>1350</v>
       </c>
       <c r="I184" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
@@ -9686,7 +9702,7 @@
         <v>1351</v>
       </c>
       <c r="I185" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -9712,7 +9728,7 @@
         <v>1351</v>
       </c>
       <c r="I186" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -9738,7 +9754,7 @@
         <v>1351</v>
       </c>
       <c r="I187" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -9761,10 +9777,10 @@
         <v>1131</v>
       </c>
       <c r="H188" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I188" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -9787,10 +9803,10 @@
         <v>1132</v>
       </c>
       <c r="H189" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I189" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -9813,10 +9829,10 @@
         <v>1053</v>
       </c>
       <c r="H190" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I190" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
@@ -9839,10 +9855,10 @@
         <v>1133</v>
       </c>
       <c r="H191" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I191" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -9865,10 +9881,10 @@
         <v>1134</v>
       </c>
       <c r="H192" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I192" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -9891,10 +9907,10 @@
         <v>1135</v>
       </c>
       <c r="H193" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I193" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -9917,10 +9933,10 @@
         <v>1136</v>
       </c>
       <c r="H194" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I194" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -9946,10 +9962,10 @@
         <v>1353</v>
       </c>
       <c r="I195" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J195" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -9975,10 +9991,10 @@
         <v>1353</v>
       </c>
       <c r="I196" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J196" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -10004,7 +10020,7 @@
         <v>1354</v>
       </c>
       <c r="I197" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -10030,7 +10046,7 @@
         <v>1354</v>
       </c>
       <c r="I198" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -10056,10 +10072,10 @@
         <v>1353</v>
       </c>
       <c r="I199" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J199" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -10085,10 +10101,10 @@
         <v>1353</v>
       </c>
       <c r="I200" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J200" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -10114,16 +10130,16 @@
         <v>1353</v>
       </c>
       <c r="I201" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J201" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="K201" t="s">
         <v>1354</v>
       </c>
       <c r="L201" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -10149,10 +10165,10 @@
         <v>1353</v>
       </c>
       <c r="I202" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J202" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -10178,10 +10194,10 @@
         <v>1353</v>
       </c>
       <c r="I203" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J203" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -10207,7 +10223,7 @@
         <v>1354</v>
       </c>
       <c r="I204" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -10233,7 +10249,7 @@
         <v>1354</v>
       </c>
       <c r="I205" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -10259,7 +10275,7 @@
         <v>1354</v>
       </c>
       <c r="I206" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
@@ -10285,7 +10301,7 @@
         <v>1355</v>
       </c>
       <c r="I207" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -10311,7 +10327,7 @@
         <v>1355</v>
       </c>
       <c r="I208" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -10337,7 +10353,7 @@
         <v>1355</v>
       </c>
       <c r="I209" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -10363,7 +10379,7 @@
         <v>1355</v>
       </c>
       <c r="I210" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -10389,7 +10405,7 @@
         <v>1355</v>
       </c>
       <c r="I211" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -10415,7 +10431,7 @@
         <v>1355</v>
       </c>
       <c r="I212" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -10441,7 +10457,7 @@
         <v>1355</v>
       </c>
       <c r="I213" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -10467,7 +10483,7 @@
         <v>1356</v>
       </c>
       <c r="I214" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -10493,7 +10509,7 @@
         <v>1357</v>
       </c>
       <c r="I215" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -10519,7 +10535,7 @@
         <v>1357</v>
       </c>
       <c r="I216" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -10545,7 +10561,7 @@
         <v>1357</v>
       </c>
       <c r="I217" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -10571,7 +10587,7 @@
         <v>1358</v>
       </c>
       <c r="I218" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -10597,7 +10613,7 @@
         <v>1358</v>
       </c>
       <c r="I219" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -10623,7 +10639,7 @@
         <v>1358</v>
       </c>
       <c r="I220" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -10649,7 +10665,7 @@
         <v>1358</v>
       </c>
       <c r="I221" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -10675,7 +10691,7 @@
         <v>1358</v>
       </c>
       <c r="I222" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -10698,10 +10714,10 @@
         <v>993</v>
       </c>
       <c r="H223" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I223" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -10724,10 +10740,10 @@
         <v>1159</v>
       </c>
       <c r="H224" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I224" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -10750,10 +10766,10 @@
         <v>1160</v>
       </c>
       <c r="H225" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I225" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -10776,10 +10792,10 @@
         <v>1005</v>
       </c>
       <c r="H226" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I226" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -10802,10 +10818,10 @@
         <v>1014</v>
       </c>
       <c r="H227" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I227" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -10831,7 +10847,7 @@
         <v>1359</v>
       </c>
       <c r="I228" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -10857,7 +10873,7 @@
         <v>1359</v>
       </c>
       <c r="I229" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -10883,7 +10899,7 @@
         <v>1359</v>
       </c>
       <c r="I230" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -10909,7 +10925,7 @@
         <v>1359</v>
       </c>
       <c r="I231" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -10935,7 +10951,7 @@
         <v>1359</v>
       </c>
       <c r="I232" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -10961,7 +10977,7 @@
         <v>1360</v>
       </c>
       <c r="I233" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -10987,7 +11003,7 @@
         <v>1361</v>
       </c>
       <c r="I234" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -11013,7 +11029,7 @@
         <v>1361</v>
       </c>
       <c r="I235" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -11039,7 +11055,7 @@
         <v>1361</v>
       </c>
       <c r="I236" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -11065,7 +11081,7 @@
         <v>1362</v>
       </c>
       <c r="I237" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -11091,10 +11107,10 @@
         <v>1363</v>
       </c>
       <c r="I238" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="J238" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -11120,10 +11136,10 @@
         <v>1363</v>
       </c>
       <c r="I239" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="J239" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -11149,7 +11165,7 @@
         <v>1364</v>
       </c>
       <c r="I240" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -11175,7 +11191,7 @@
         <v>1362</v>
       </c>
       <c r="I241" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -11201,7 +11217,7 @@
         <v>1365</v>
       </c>
       <c r="I242" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -11224,10 +11240,10 @@
         <v>1172</v>
       </c>
       <c r="H243" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="I243" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -11253,7 +11269,7 @@
         <v>1366</v>
       </c>
       <c r="I244" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -11276,10 +11292,10 @@
         <v>1024</v>
       </c>
       <c r="H245" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I245" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -11305,7 +11321,7 @@
         <v>1366</v>
       </c>
       <c r="I246" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -11331,7 +11347,7 @@
         <v>1366</v>
       </c>
       <c r="I247" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -11354,10 +11370,10 @@
         <v>1101</v>
       </c>
       <c r="H248" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="I248" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -11383,7 +11399,7 @@
         <v>1365</v>
       </c>
       <c r="I249" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -11409,7 +11425,7 @@
         <v>1366</v>
       </c>
       <c r="I250" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -11432,10 +11448,10 @@
         <v>1002</v>
       </c>
       <c r="H251" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I251" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -11461,10 +11477,10 @@
         <v>1363</v>
       </c>
       <c r="I252" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="J252" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -11487,10 +11503,10 @@
         <v>1178</v>
       </c>
       <c r="H253" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="I253" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -11516,7 +11532,7 @@
         <v>1362</v>
       </c>
       <c r="I254" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -11542,7 +11558,7 @@
         <v>1364</v>
       </c>
       <c r="I255" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -11568,7 +11584,7 @@
         <v>1362</v>
       </c>
       <c r="I256" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11594,7 +11610,7 @@
         <v>1362</v>
       </c>
       <c r="I257" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11617,10 +11633,10 @@
         <v>1182</v>
       </c>
       <c r="H258" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="I258" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11646,7 +11662,7 @@
         <v>1367</v>
       </c>
       <c r="I259" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11672,7 +11688,7 @@
         <v>1368</v>
       </c>
       <c r="I260" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11698,7 +11714,7 @@
         <v>1368</v>
       </c>
       <c r="I261" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11724,7 +11740,7 @@
         <v>1368</v>
       </c>
       <c r="I262" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11750,7 +11766,7 @@
         <v>1368</v>
       </c>
       <c r="I263" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11779,7 +11795,7 @@
         <v>1368</v>
       </c>
       <c r="I264" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11799,7 +11815,7 @@
         <v>1368</v>
       </c>
       <c r="I265" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11825,7 +11841,7 @@
         <v>1324</v>
       </c>
       <c r="I266" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11851,7 +11867,7 @@
         <v>1369</v>
       </c>
       <c r="I267" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11877,7 +11893,7 @@
         <v>1369</v>
       </c>
       <c r="I268" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11903,7 +11919,7 @@
         <v>1369</v>
       </c>
       <c r="I269" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11929,7 +11945,7 @@
         <v>1324</v>
       </c>
       <c r="I270" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11955,7 +11971,7 @@
         <v>1324</v>
       </c>
       <c r="I271" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11981,7 +11997,7 @@
         <v>1305</v>
       </c>
       <c r="I272" t="s">
-        <v>1465</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
@@ -12007,7 +12023,7 @@
         <v>1305</v>
       </c>
       <c r="I273" t="s">
-        <v>1465</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
@@ -12033,7 +12049,7 @@
         <v>1329</v>
       </c>
       <c r="I274" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
@@ -12059,7 +12075,7 @@
         <v>1329</v>
       </c>
       <c r="I275" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
@@ -12085,7 +12101,7 @@
         <v>1329</v>
       </c>
       <c r="I276" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
@@ -12137,7 +12153,7 @@
         <v>1369</v>
       </c>
       <c r="I278" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
@@ -12163,7 +12179,7 @@
         <v>1371</v>
       </c>
       <c r="I279" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
@@ -12189,7 +12205,7 @@
         <v>1371</v>
       </c>
       <c r="I280" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
@@ -12215,13 +12231,13 @@
         <v>1371</v>
       </c>
       <c r="I281" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="K281" t="s">
         <v>1349</v>
       </c>
       <c r="L281" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
@@ -12247,7 +12263,7 @@
         <v>1371</v>
       </c>
       <c r="I282" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
@@ -12270,10 +12286,10 @@
         <v>1066</v>
       </c>
       <c r="H283" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I283" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
@@ -12299,7 +12315,7 @@
         <v>1369</v>
       </c>
       <c r="I284" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
@@ -12325,7 +12341,7 @@
         <v>1373</v>
       </c>
       <c r="I285" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
@@ -12351,7 +12367,7 @@
         <v>1371</v>
       </c>
       <c r="I286" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
@@ -12377,7 +12393,7 @@
         <v>1371</v>
       </c>
       <c r="I287" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
@@ -12403,7 +12419,7 @@
         <v>1369</v>
       </c>
       <c r="I288" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -12429,7 +12445,7 @@
         <v>1371</v>
       </c>
       <c r="I289" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -12455,7 +12471,7 @@
         <v>1369</v>
       </c>
       <c r="I290" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -12478,10 +12494,10 @@
         <v>1028</v>
       </c>
       <c r="H291" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I291" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -12507,7 +12523,7 @@
         <v>1374</v>
       </c>
       <c r="I292" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -12533,7 +12549,7 @@
         <v>1374</v>
       </c>
       <c r="I293" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -12556,10 +12572,10 @@
         <v>1080</v>
       </c>
       <c r="H294" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="I294" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -12582,10 +12598,10 @@
         <v>1203</v>
       </c>
       <c r="H295" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="I295" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12611,7 +12627,7 @@
         <v>1375</v>
       </c>
       <c r="I296" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12637,7 +12653,7 @@
         <v>1375</v>
       </c>
       <c r="I297" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12663,7 +12679,7 @@
         <v>1376</v>
       </c>
       <c r="I298" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12689,7 +12705,7 @@
         <v>1376</v>
       </c>
       <c r="I299" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12718,7 +12734,7 @@
         <v>1376</v>
       </c>
       <c r="I300" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12741,10 +12757,10 @@
         <v>1206</v>
       </c>
       <c r="H301" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="I301" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12767,10 +12783,10 @@
         <v>1207</v>
       </c>
       <c r="H302" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="I302" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12793,10 +12809,10 @@
         <v>979</v>
       </c>
       <c r="H303" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="I303" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12822,7 +12838,7 @@
         <v>1374</v>
       </c>
       <c r="I304" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12848,7 +12864,7 @@
         <v>1376</v>
       </c>
       <c r="I305" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12874,7 +12890,7 @@
         <v>1376</v>
       </c>
       <c r="I306" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12900,7 +12916,7 @@
         <v>1374</v>
       </c>
       <c r="I307" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12926,7 +12942,7 @@
         <v>1374</v>
       </c>
       <c r="I308" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12952,7 +12968,7 @@
         <v>1376</v>
       </c>
       <c r="I309" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12975,10 +12991,10 @@
         <v>1141</v>
       </c>
       <c r="H310" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="I310" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -13001,10 +13017,10 @@
         <v>1210</v>
       </c>
       <c r="H311" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I311" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -13027,10 +13043,10 @@
         <v>1005</v>
       </c>
       <c r="H312" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I312" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -13053,10 +13069,10 @@
         <v>1178</v>
       </c>
       <c r="H313" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I313" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -13079,10 +13095,10 @@
         <v>1102</v>
       </c>
       <c r="H314" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I314" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -13105,10 +13121,10 @@
         <v>1101</v>
       </c>
       <c r="H315" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I315" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -13134,7 +13150,7 @@
         <v>1377</v>
       </c>
       <c r="I316" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -13160,7 +13176,7 @@
         <v>1377</v>
       </c>
       <c r="I317" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -13186,7 +13202,7 @@
         <v>1377</v>
       </c>
       <c r="I318" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -13209,10 +13225,10 @@
         <v>1212</v>
       </c>
       <c r="H319" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="I319" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -13235,10 +13251,10 @@
         <v>1063</v>
       </c>
       <c r="H320" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="I320" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -13264,7 +13280,7 @@
         <v>1378</v>
       </c>
       <c r="I321" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -13290,7 +13306,7 @@
         <v>1378</v>
       </c>
       <c r="I322" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -13316,7 +13332,7 @@
         <v>1378</v>
       </c>
       <c r="I323" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -13339,10 +13355,10 @@
         <v>997</v>
       </c>
       <c r="H324" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I324" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13368,7 +13384,7 @@
         <v>1378</v>
       </c>
       <c r="I325" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13391,10 +13407,10 @@
         <v>1216</v>
       </c>
       <c r="H326" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="I326" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13420,7 +13436,7 @@
         <v>1377</v>
       </c>
       <c r="I327" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13443,10 +13459,10 @@
         <v>1027</v>
       </c>
       <c r="H328" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="I328" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13469,10 +13485,10 @@
         <v>1011</v>
       </c>
       <c r="H329" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I329" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13498,7 +13514,7 @@
         <v>1373</v>
       </c>
       <c r="I330" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13524,7 +13540,7 @@
         <v>1373</v>
       </c>
       <c r="I331" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13550,7 +13566,7 @@
         <v>1373</v>
       </c>
       <c r="I332" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13573,10 +13589,10 @@
         <v>1218</v>
       </c>
       <c r="H333" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I333" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13602,7 +13618,7 @@
         <v>1379</v>
       </c>
       <c r="I334" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13628,7 +13644,7 @@
         <v>1379</v>
       </c>
       <c r="I335" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13654,7 +13670,7 @@
         <v>1379</v>
       </c>
       <c r="I336" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13677,10 +13693,10 @@
         <v>1222</v>
       </c>
       <c r="H337" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I337" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13706,7 +13722,7 @@
         <v>1307</v>
       </c>
       <c r="I338" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13729,10 +13745,10 @@
         <v>1223</v>
       </c>
       <c r="H339" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I339" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13758,7 +13774,7 @@
         <v>1380</v>
       </c>
       <c r="I340" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13784,7 +13800,7 @@
         <v>1380</v>
       </c>
       <c r="I341" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13810,7 +13826,7 @@
         <v>1381</v>
       </c>
       <c r="I342" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13836,7 +13852,7 @@
         <v>1382</v>
       </c>
       <c r="I343" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13862,7 +13878,7 @@
         <v>1381</v>
       </c>
       <c r="I344" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13888,7 +13904,7 @@
         <v>1373</v>
       </c>
       <c r="I345" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13911,10 +13927,10 @@
         <v>1227</v>
       </c>
       <c r="H346" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I346" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13940,7 +13956,7 @@
         <v>1379</v>
       </c>
       <c r="I347" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13966,7 +13982,7 @@
         <v>1380</v>
       </c>
       <c r="I348" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13989,10 +14005,10 @@
         <v>1230</v>
       </c>
       <c r="H349" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I349" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -14015,10 +14031,10 @@
         <v>1169</v>
       </c>
       <c r="H350" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I350" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -14044,7 +14060,7 @@
         <v>1383</v>
       </c>
       <c r="I351" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -14070,7 +14086,7 @@
         <v>1383</v>
       </c>
       <c r="I352" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -14096,7 +14112,7 @@
         <v>1383</v>
       </c>
       <c r="I353" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -14122,7 +14138,7 @@
         <v>1384</v>
       </c>
       <c r="I354" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -14148,7 +14164,7 @@
         <v>1384</v>
       </c>
       <c r="I355" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -14174,7 +14190,7 @@
         <v>1385</v>
       </c>
       <c r="I356" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -14200,7 +14216,7 @@
         <v>1386</v>
       </c>
       <c r="I357" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -14226,7 +14242,7 @@
         <v>1386</v>
       </c>
       <c r="I358" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -14252,7 +14268,7 @@
         <v>1312</v>
       </c>
       <c r="I359" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -14278,7 +14294,7 @@
         <v>1312</v>
       </c>
       <c r="I360" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -14304,7 +14320,7 @@
         <v>1384</v>
       </c>
       <c r="I361" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -14330,7 +14346,7 @@
         <v>1387</v>
       </c>
       <c r="I362" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -14356,7 +14372,7 @@
         <v>1387</v>
       </c>
       <c r="I363" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -14382,7 +14398,7 @@
         <v>1352</v>
       </c>
       <c r="I364" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -14408,7 +14424,7 @@
         <v>1352</v>
       </c>
       <c r="I365" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -14434,7 +14450,7 @@
         <v>1324</v>
       </c>
       <c r="I366" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -14460,7 +14476,7 @@
         <v>1324</v>
       </c>
       <c r="I367" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -14483,10 +14499,10 @@
         <v>1237</v>
       </c>
       <c r="H368" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="I368" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.3">
@@ -14509,10 +14525,10 @@
         <v>1068</v>
       </c>
       <c r="H369" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="I369" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.3">
@@ -14535,10 +14551,10 @@
         <v>1238</v>
       </c>
       <c r="H370" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="I370" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.3">
@@ -14561,16 +14577,16 @@
         <v>1192</v>
       </c>
       <c r="H371" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="I371" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="K371" t="s">
         <v>1388</v>
       </c>
       <c r="L371" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.3">
@@ -14596,7 +14612,7 @@
         <v>1388</v>
       </c>
       <c r="I372" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.3">
@@ -14622,7 +14638,7 @@
         <v>1388</v>
       </c>
       <c r="I373" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.3">
@@ -14648,7 +14664,7 @@
         <v>1388</v>
       </c>
       <c r="I374" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
@@ -14674,7 +14690,7 @@
         <v>1389</v>
       </c>
       <c r="I375" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.3">
@@ -14700,7 +14716,7 @@
         <v>1390</v>
       </c>
       <c r="I376" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.3">
@@ -14726,7 +14742,7 @@
         <v>1390</v>
       </c>
       <c r="I377" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.3">
@@ -14755,7 +14771,7 @@
         <v>1335</v>
       </c>
       <c r="I378" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.3">
@@ -14784,7 +14800,7 @@
         <v>1335</v>
       </c>
       <c r="I379" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.3">
@@ -14813,7 +14829,7 @@
         <v>1335</v>
       </c>
       <c r="I380" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.3">
@@ -14842,7 +14858,7 @@
         <v>1335</v>
       </c>
       <c r="I381" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.3">
@@ -14871,7 +14887,7 @@
         <v>1335</v>
       </c>
       <c r="I382" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.3">
@@ -14894,10 +14910,10 @@
         <v>986</v>
       </c>
       <c r="H383" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I383" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.3">
@@ -14920,10 +14936,10 @@
         <v>1245</v>
       </c>
       <c r="H384" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I384" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.3">
@@ -14946,10 +14962,10 @@
         <v>1246</v>
       </c>
       <c r="H385" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I385" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.3">
@@ -14972,10 +14988,10 @@
         <v>1247</v>
       </c>
       <c r="H386" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I386" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.3">
@@ -14998,10 +15014,10 @@
         <v>1056</v>
       </c>
       <c r="H387" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I387" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.3">
@@ -15024,16 +15040,16 @@
         <v>1248</v>
       </c>
       <c r="H388" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I388" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="K388" t="s">
         <v>1391</v>
       </c>
       <c r="L388" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.3">
@@ -15056,10 +15072,10 @@
         <v>1055</v>
       </c>
       <c r="H389" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I389" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.3">
@@ -15085,7 +15101,7 @@
         <v>1391</v>
       </c>
       <c r="I390" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.3">
@@ -15111,7 +15127,7 @@
         <v>1391</v>
       </c>
       <c r="I391" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.3">
@@ -15137,7 +15153,7 @@
         <v>1391</v>
       </c>
       <c r="I392" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.3">
@@ -15163,7 +15179,7 @@
         <v>1391</v>
       </c>
       <c r="I393" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.3">
@@ -15189,7 +15205,7 @@
         <v>1392</v>
       </c>
       <c r="I394" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.3">
@@ -15215,7 +15231,7 @@
         <v>1392</v>
       </c>
       <c r="I395" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.3">
@@ -15241,7 +15257,7 @@
         <v>1393</v>
       </c>
       <c r="I396" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.3">
@@ -15267,7 +15283,7 @@
         <v>1394</v>
       </c>
       <c r="I397" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.3">
@@ -15293,7 +15309,7 @@
         <v>1395</v>
       </c>
       <c r="I398" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.3">
@@ -15322,7 +15338,7 @@
         <v>1396</v>
       </c>
       <c r="I399" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.3">
@@ -15348,7 +15364,7 @@
         <v>1396</v>
       </c>
       <c r="I400" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.3">
@@ -15374,7 +15390,7 @@
         <v>1396</v>
       </c>
       <c r="I401" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.3">
@@ -15400,7 +15416,7 @@
         <v>1396</v>
       </c>
       <c r="I402" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.3">
@@ -15426,7 +15442,7 @@
         <v>1396</v>
       </c>
       <c r="I403" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.3">
@@ -15452,13 +15468,13 @@
         <v>1396</v>
       </c>
       <c r="I404" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="K404" t="s">
         <v>1398</v>
       </c>
       <c r="L404" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.3">
@@ -15484,13 +15500,13 @@
         <v>1396</v>
       </c>
       <c r="I405" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="K405" t="s">
         <v>1372</v>
       </c>
       <c r="L405" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.3">
@@ -15516,7 +15532,7 @@
         <v>1397</v>
       </c>
       <c r="I406" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.3">
@@ -15542,7 +15558,7 @@
         <v>1397</v>
       </c>
       <c r="I407" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.3">
@@ -15568,7 +15584,7 @@
         <v>1397</v>
       </c>
       <c r="I408" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.3">
@@ -15594,7 +15610,7 @@
         <v>1397</v>
       </c>
       <c r="I409" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.3">
@@ -15620,7 +15636,7 @@
         <v>1397</v>
       </c>
       <c r="I410" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.3">
@@ -15646,7 +15662,7 @@
         <v>1397</v>
       </c>
       <c r="I411" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.3">
@@ -15672,7 +15688,7 @@
         <v>1397</v>
       </c>
       <c r="I412" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.3">
@@ -15698,7 +15714,7 @@
         <v>1397</v>
       </c>
       <c r="I413" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.3">
@@ -15721,10 +15737,10 @@
         <v>1204</v>
       </c>
       <c r="H414" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I414" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.3">
@@ -15750,7 +15766,7 @@
         <v>1398</v>
       </c>
       <c r="I415" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.3">
@@ -15776,7 +15792,7 @@
         <v>1398</v>
       </c>
       <c r="I416" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -15802,7 +15818,7 @@
         <v>1372</v>
       </c>
       <c r="I417" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -15828,7 +15844,7 @@
         <v>1399</v>
       </c>
       <c r="I418" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -15857,7 +15873,7 @@
         <v>1400</v>
       </c>
       <c r="I419" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -15886,7 +15902,7 @@
         <v>1400</v>
       </c>
       <c r="I420" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
@@ -15915,7 +15931,7 @@
         <v>1400</v>
       </c>
       <c r="I421" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
@@ -15944,7 +15960,7 @@
         <v>1400</v>
       </c>
       <c r="I422" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
@@ -15973,7 +15989,7 @@
         <v>1400</v>
       </c>
       <c r="I423" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
@@ -16002,7 +16018,7 @@
         <v>1400</v>
       </c>
       <c r="I424" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
@@ -16031,7 +16047,7 @@
         <v>1400</v>
       </c>
       <c r="I425" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
@@ -16060,7 +16076,7 @@
         <v>1400</v>
       </c>
       <c r="I426" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
@@ -16089,7 +16105,7 @@
         <v>1400</v>
       </c>
       <c r="I427" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
@@ -16118,7 +16134,7 @@
         <v>1400</v>
       </c>
       <c r="I428" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
@@ -16147,7 +16163,7 @@
         <v>1401</v>
       </c>
       <c r="I429" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
@@ -16176,7 +16192,7 @@
         <v>1401</v>
       </c>
       <c r="I430" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
@@ -16205,7 +16221,7 @@
         <v>1401</v>
       </c>
       <c r="I431" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
@@ -16234,7 +16250,7 @@
         <v>1401</v>
       </c>
       <c r="I432" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.3">
@@ -16263,7 +16279,7 @@
         <v>1401</v>
       </c>
       <c r="I433" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.3">
@@ -16292,7 +16308,7 @@
         <v>1401</v>
       </c>
       <c r="I434" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.3">
@@ -16321,7 +16337,7 @@
         <v>1401</v>
       </c>
       <c r="I435" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.3">
@@ -16350,7 +16366,7 @@
         <v>1402</v>
       </c>
       <c r="I436" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.3">
@@ -16379,7 +16395,7 @@
         <v>1402</v>
       </c>
       <c r="I437" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.3">
@@ -16405,7 +16421,7 @@
         <v>1321</v>
       </c>
       <c r="I438" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.3">
@@ -16431,7 +16447,7 @@
         <v>1321</v>
       </c>
       <c r="I439" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.3">
@@ -16457,7 +16473,7 @@
         <v>1321</v>
       </c>
       <c r="I440" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.3">
@@ -16480,10 +16496,10 @@
         <v>1279</v>
       </c>
       <c r="H441" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I441" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.3">
@@ -16509,7 +16525,7 @@
         <v>1403</v>
       </c>
       <c r="I442" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.3">
@@ -16535,7 +16551,7 @@
         <v>1404</v>
       </c>
       <c r="I443" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.3">
@@ -16561,7 +16577,7 @@
         <v>1321</v>
       </c>
       <c r="I444" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.3">
@@ -16587,13 +16603,13 @@
         <v>1321</v>
       </c>
       <c r="I445" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="K445" t="s">
         <v>1403</v>
       </c>
       <c r="L445" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.3">
@@ -16619,13 +16635,13 @@
         <v>1321</v>
       </c>
       <c r="I446" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="K446" t="s">
         <v>1404</v>
       </c>
       <c r="L446" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.3">
@@ -16648,10 +16664,10 @@
         <v>1281</v>
       </c>
       <c r="H447" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I447" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.3">
@@ -16674,10 +16690,10 @@
         <v>1282</v>
       </c>
       <c r="H448" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I448" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.3">
@@ -16700,10 +16716,10 @@
         <v>1283</v>
       </c>
       <c r="H449" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I449" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.3">
@@ -16726,10 +16742,10 @@
         <v>1284</v>
       </c>
       <c r="H450" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I450" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.3">
@@ -16752,10 +16768,10 @@
         <v>1285</v>
       </c>
       <c r="H451" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I451" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.3">
@@ -16778,10 +16794,10 @@
         <v>1286</v>
       </c>
       <c r="H452" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I452" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.3">
@@ -16804,10 +16820,10 @@
         <v>1287</v>
       </c>
       <c r="H453" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I453" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.3">
@@ -16833,10 +16849,10 @@
         <v>1405</v>
       </c>
       <c r="I454" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J454" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.3">
@@ -16862,10 +16878,10 @@
         <v>1405</v>
       </c>
       <c r="I455" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J455" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.3">
@@ -16891,16 +16907,16 @@
         <v>1405</v>
       </c>
       <c r="I456" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J456" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="K456" t="s">
         <v>1408</v>
       </c>
       <c r="L456" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.3">
@@ -16926,10 +16942,10 @@
         <v>1405</v>
       </c>
       <c r="I457" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J457" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.3">
@@ -16955,10 +16971,10 @@
         <v>1405</v>
       </c>
       <c r="I458" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="J458" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.3">
@@ -16984,7 +17000,7 @@
         <v>1406</v>
       </c>
       <c r="I459" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.3">
@@ -17010,7 +17026,7 @@
         <v>1406</v>
       </c>
       <c r="I460" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.3">
@@ -17036,7 +17052,7 @@
         <v>1407</v>
       </c>
       <c r="I461" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.3">
@@ -17062,7 +17078,7 @@
         <v>1408</v>
       </c>
       <c r="I462" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.3">
@@ -17088,7 +17104,7 @@
         <v>1409</v>
       </c>
       <c r="I463" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.3">
@@ -17114,7 +17130,7 @@
         <v>1409</v>
       </c>
       <c r="I464" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.3">
@@ -17140,13 +17156,13 @@
         <v>1409</v>
       </c>
       <c r="I465" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="K465" t="s">
         <v>1411</v>
       </c>
       <c r="L465" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.3">
@@ -17172,19 +17188,19 @@
         <v>1409</v>
       </c>
       <c r="I466" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="K466" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="L466" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="M466" t="s">
         <v>1411</v>
       </c>
       <c r="N466" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.3">
@@ -17210,7 +17226,7 @@
         <v>1409</v>
       </c>
       <c r="I467" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.3">
@@ -17233,10 +17249,10 @@
         <v>1299</v>
       </c>
       <c r="H468" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="I468" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.3">
@@ -17259,10 +17275,10 @@
         <v>979</v>
       </c>
       <c r="H469" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="I469" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.3">
@@ -17285,10 +17301,10 @@
         <v>1300</v>
       </c>
       <c r="H470" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="I470" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.3">
@@ -17314,7 +17330,7 @@
         <v>1410</v>
       </c>
       <c r="I471" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.3">
@@ -17340,7 +17356,7 @@
         <v>1411</v>
       </c>
       <c r="I472" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.3">
@@ -17366,7 +17382,7 @@
         <v>1411</v>
       </c>
       <c r="I473" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.3">
@@ -17392,7 +17408,7 @@
         <v>1412</v>
       </c>
       <c r="I474" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.3">
@@ -17418,7 +17434,7 @@
         <v>1412</v>
       </c>
       <c r="I475" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.3">
@@ -17444,7 +17460,7 @@
         <v>1412</v>
       </c>
       <c r="I476" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.3">
@@ -17470,7 +17486,7 @@
         <v>1413</v>
       </c>
       <c r="I477" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.3">
@@ -17496,7 +17512,7 @@
         <v>1413</v>
       </c>
       <c r="I478" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.3">
@@ -17522,7 +17538,7 @@
         <v>1413</v>
       </c>
       <c r="I479" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.3">
@@ -17548,7 +17564,7 @@
         <v>1413</v>
       </c>
       <c r="I480" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.3">
@@ -17574,7 +17590,7 @@
         <v>1413</v>
       </c>
       <c r="I481" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.3">
@@ -17600,7 +17616,7 @@
         <v>1413</v>
       </c>
       <c r="I482" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.3">
@@ -17626,7 +17642,7 @@
         <v>1413</v>
       </c>
       <c r="I483" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.3">
@@ -17652,7 +17668,7 @@
         <v>1414</v>
       </c>
       <c r="I484" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.3">
@@ -17678,7 +17694,7 @@
         <v>1415</v>
       </c>
       <c r="I485" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.3">
@@ -17704,7 +17720,7 @@
         <v>1416</v>
       </c>
       <c r="I486" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
